--- a/new2017JUN/log/poro.xlsx
+++ b/new2017JUN/log/poro.xlsx
@@ -86,12 +86,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,17 +114,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -130,7 +130,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -437,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44:G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,7 +455,7 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
@@ -478,16 +478,16 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>8182.5</v>
       </c>
-      <c r="E2" s="3">
-        <v>16.049999999999997</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2">
+        <v>0.16049999999999998</v>
+      </c>
+      <c r="F2" s="3">
         <v>84</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <v>113</v>
       </c>
     </row>
@@ -501,16 +501,16 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>8693.4</v>
       </c>
-      <c r="E3" s="3">
-        <v>12.733333333333336</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3">
+        <v>0.12733333333333335</v>
+      </c>
+      <c r="F3" s="3">
         <v>85</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>175</v>
       </c>
     </row>
@@ -524,16 +524,16 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>8941.4</v>
       </c>
-      <c r="E4" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E4">
+        <v>0.125</v>
+      </c>
+      <c r="F4" s="3">
         <v>118</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>76</v>
       </c>
     </row>
@@ -547,16 +547,16 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>9092.5</v>
       </c>
-      <c r="E5" s="3">
-        <v>12.98</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5">
+        <v>0.1298</v>
+      </c>
+      <c r="F5" s="3">
         <v>88</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>233</v>
       </c>
     </row>
@@ -570,16 +570,16 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>8886.1</v>
       </c>
-      <c r="E6" s="3">
-        <v>16.785714285714285</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6">
+        <v>0.16785714285714284</v>
+      </c>
+      <c r="F6" s="3">
         <v>41</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>107</v>
       </c>
     </row>
@@ -593,16 +593,16 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>8949.9</v>
       </c>
-      <c r="E7" s="3">
-        <v>15.425000000000001</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7">
+        <v>0.15425</v>
+      </c>
+      <c r="F7" s="3">
         <v>117</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <v>119</v>
       </c>
     </row>
@@ -616,16 +616,16 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>8984.1</v>
       </c>
-      <c r="E8" s="3">
-        <v>13.080000000000002</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="E8">
+        <v>0.13080000000000003</v>
+      </c>
+      <c r="F8" s="3">
         <v>82</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>46</v>
       </c>
     </row>
@@ -639,16 +639,16 @@
       <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>8187.2</v>
       </c>
-      <c r="E9" s="3">
-        <v>19.499999999999996</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9">
+        <v>0.19499999999999995</v>
+      </c>
+      <c r="F9" s="3">
         <v>84</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>113</v>
       </c>
     </row>
@@ -662,16 +662,16 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>8698.1</v>
       </c>
-      <c r="E10" s="3">
-        <v>10.533333333333331</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10">
+        <v>0.10533333333333332</v>
+      </c>
+      <c r="F10" s="3">
         <v>85</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>175</v>
       </c>
     </row>
@@ -685,16 +685,16 @@
       <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>8947.4</v>
       </c>
-      <c r="E11" s="3">
-        <v>12.32</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11">
+        <v>0.1232</v>
+      </c>
+      <c r="F11" s="3">
         <v>118</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>76</v>
       </c>
     </row>
@@ -708,16 +708,16 @@
       <c r="C12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>9099.5</v>
       </c>
-      <c r="E12" s="3">
-        <v>10.62857142857143</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12">
+        <v>0.1062857142857143</v>
+      </c>
+      <c r="F12" s="3">
         <v>88</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>233</v>
       </c>
     </row>
@@ -731,16 +731,16 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>8892.7999999999993</v>
       </c>
-      <c r="E13" s="3">
-        <v>15.824999999999999</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13">
+        <v>0.15825</v>
+      </c>
+      <c r="F13" s="3">
         <v>41</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>107</v>
       </c>
     </row>
@@ -754,16 +754,16 @@
       <c r="C14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>8955.9</v>
       </c>
-      <c r="E14" s="3">
-        <v>11.883333333333335</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14">
+        <v>0.11883333333333335</v>
+      </c>
+      <c r="F14" s="3">
         <v>117</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>119</v>
       </c>
     </row>
@@ -777,16 +777,16 @@
       <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="3">
         <v>8989.7999999999993</v>
       </c>
-      <c r="E15" s="3">
-        <v>15.842857142857145</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E15">
+        <v>0.15842857142857145</v>
+      </c>
+      <c r="F15" s="3">
         <v>82</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <v>46</v>
       </c>
     </row>
@@ -800,16 +800,16 @@
       <c r="C16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>8191.8</v>
       </c>
-      <c r="E16" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="E16">
+        <v>0.115</v>
+      </c>
+      <c r="F16" s="3">
         <v>84</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>113</v>
       </c>
     </row>
@@ -823,16 +823,16 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="3">
         <v>8702.7999999999993</v>
       </c>
-      <c r="E17" s="3">
-        <v>6.0333333333333341</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17">
+        <v>6.0333333333333343E-2</v>
+      </c>
+      <c r="F17" s="3">
         <v>85</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>175</v>
       </c>
     </row>
@@ -846,16 +846,16 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="3">
         <v>8953.4</v>
       </c>
-      <c r="E18" s="3">
-        <v>11.48</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18">
+        <v>0.1148</v>
+      </c>
+      <c r="F18" s="3">
         <v>118</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <v>76</v>
       </c>
     </row>
@@ -869,16 +869,16 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="3">
         <v>9106.5</v>
       </c>
-      <c r="E19" s="3">
-        <v>10.959999999999999</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19">
+        <v>0.10959999999999999</v>
+      </c>
+      <c r="F19" s="3">
         <v>88</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>233</v>
       </c>
     </row>
@@ -892,16 +892,16 @@
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="3">
         <v>8899.4</v>
       </c>
-      <c r="E20" s="3">
-        <v>15.085714285714285</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20">
+        <v>0.15085714285714286</v>
+      </c>
+      <c r="F20" s="3">
         <v>41</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <v>107</v>
       </c>
     </row>
@@ -915,16 +915,16 @@
       <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
         <v>8961.9</v>
       </c>
-      <c r="E21" s="3">
-        <v>10.983333333333333</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21">
+        <v>0.10983333333333332</v>
+      </c>
+      <c r="F21" s="3">
         <v>117</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <v>119</v>
       </c>
     </row>
@@ -938,16 +938,16 @@
       <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>8995.5</v>
       </c>
-      <c r="E22" s="3">
-        <v>13.149999999999999</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22">
+        <v>0.13149999999999998</v>
+      </c>
+      <c r="F22" s="3">
         <v>82</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <v>46</v>
       </c>
     </row>
@@ -961,16 +961,16 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="4">
         <v>8198.2000000000007</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <v>84</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <v>113</v>
       </c>
     </row>
@@ -984,16 +984,16 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="4">
         <v>8708.1</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <v>85</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>175</v>
       </c>
     </row>
@@ -1007,16 +1007,16 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="4">
         <v>8959.4</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <v>118</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <v>76</v>
       </c>
     </row>
@@ -1030,16 +1030,16 @@
       <c r="C26" s="1">
         <v>4</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="4">
         <v>9111.5</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>88</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <v>233</v>
       </c>
     </row>
@@ -1053,16 +1053,16 @@
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="4">
         <v>8902.7999999999993</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <v>41</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <v>107</v>
       </c>
     </row>
@@ -1076,16 +1076,16 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>8967.4</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <v>117</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <v>119</v>
       </c>
     </row>
@@ -1099,16 +1099,16 @@
       <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>9001.7999999999993</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <v>82</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <v>46</v>
       </c>
     </row>
@@ -1122,16 +1122,16 @@
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="3">
         <v>8203.5</v>
       </c>
-      <c r="E30" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F30" s="3">
         <v>84</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <v>113</v>
       </c>
     </row>
@@ -1145,16 +1145,16 @@
       <c r="C31" s="1">
         <v>5</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="3">
         <v>8712.4</v>
       </c>
-      <c r="E31" s="2">
-        <v>18.466666666666665</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31">
+        <v>0.18466666666666665</v>
+      </c>
+      <c r="F31" s="3">
         <v>85</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <v>175</v>
       </c>
     </row>
@@ -1168,16 +1168,16 @@
       <c r="C32" s="1">
         <v>5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="3">
         <v>8964</v>
       </c>
-      <c r="E32" s="2">
-        <v>15.45</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32">
+        <v>0.1545</v>
+      </c>
+      <c r="F32" s="3">
         <v>118</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <v>76</v>
       </c>
     </row>
@@ -1191,16 +1191,16 @@
       <c r="C33" s="1">
         <v>5</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="3">
         <v>9115</v>
       </c>
-      <c r="E33" s="2">
-        <v>18.733333333333334</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="E33">
+        <v>0.18733333333333335</v>
+      </c>
+      <c r="F33" s="3">
         <v>88</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <v>233</v>
       </c>
     </row>
@@ -1214,16 +1214,16 @@
       <c r="C34" s="1">
         <v>5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="3">
         <v>8904.5</v>
       </c>
-      <c r="E34" s="2">
-        <v>18.074999999999999</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34">
+        <v>0.18074999999999999</v>
+      </c>
+      <c r="F34" s="3">
         <v>41</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <v>107</v>
       </c>
     </row>
@@ -1237,16 +1237,16 @@
       <c r="C35" s="1">
         <v>5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="3">
         <v>8971.9</v>
       </c>
-      <c r="E35" s="2">
-        <v>25.549999999999994</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="E35">
+        <v>0.25549999999999995</v>
+      </c>
+      <c r="F35" s="3">
         <v>117</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <v>119</v>
       </c>
     </row>
@@ -1260,16 +1260,16 @@
       <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="3">
         <v>9006.6</v>
       </c>
-      <c r="E36" s="2">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36">
+        <v>0.20350000000000001</v>
+      </c>
+      <c r="F36" s="3">
         <v>82</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <v>46</v>
       </c>
     </row>
@@ -1283,16 +1283,16 @@
       <c r="C37" s="1">
         <v>6</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="3">
         <v>8206.2000000000007</v>
       </c>
-      <c r="E37" s="2">
-        <v>24.700000000000003</v>
-      </c>
-      <c r="F37" s="5">
+      <c r="E37">
+        <v>0.24700000000000003</v>
+      </c>
+      <c r="F37" s="3">
         <v>84</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <v>113</v>
       </c>
     </row>
@@ -1306,16 +1306,16 @@
       <c r="C38" s="1">
         <v>6</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="3">
         <v>8715.1</v>
       </c>
-      <c r="E38" s="2">
-        <v>26.525000000000006</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38">
+        <v>0.26525000000000004</v>
+      </c>
+      <c r="F38" s="3">
         <v>85</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <v>175</v>
       </c>
     </row>
@@ -1329,16 +1329,16 @@
       <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="3">
         <v>8967.4</v>
       </c>
-      <c r="E39" s="2">
-        <v>20.7</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="E39">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F39" s="3">
         <v>118</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="3">
         <v>76</v>
       </c>
     </row>
@@ -1352,16 +1352,16 @@
       <c r="C40" s="1">
         <v>6</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="3">
         <v>9119</v>
       </c>
-      <c r="E40" s="2">
-        <v>25.5</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="E40">
+        <v>0.255</v>
+      </c>
+      <c r="F40" s="3">
         <v>88</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="3">
         <v>233</v>
       </c>
     </row>
@@ -1375,16 +1375,16 @@
       <c r="C41" s="1">
         <v>6</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="3">
         <v>8907.7999999999993</v>
       </c>
-      <c r="E41" s="2">
-        <v>33.15</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="E41">
+        <v>0.33149999999999996</v>
+      </c>
+      <c r="F41" s="3">
         <v>41</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="3">
         <v>107</v>
       </c>
     </row>
@@ -1398,16 +1398,16 @@
       <c r="C42" s="1">
         <v>6</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="3">
         <v>8975.9</v>
       </c>
-      <c r="E42" s="2">
-        <v>27</v>
-      </c>
-      <c r="F42" s="5">
+      <c r="E42">
+        <v>0.27</v>
+      </c>
+      <c r="F42" s="3">
         <v>117</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="3">
         <v>119</v>
       </c>
     </row>
@@ -1421,16 +1421,16 @@
       <c r="C43" s="1">
         <v>6</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="3">
         <v>9009.2999999999993</v>
       </c>
-      <c r="E43" s="2">
-        <v>20</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="3">
         <v>82</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="3">
         <v>46</v>
       </c>
     </row>
@@ -1444,16 +1444,16 @@
       <c r="C44" s="1">
         <v>7</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="3">
         <v>8208.7999999999993</v>
       </c>
-      <c r="E44" s="2">
-        <v>21.466666666666669</v>
-      </c>
-      <c r="F44" s="5">
+      <c r="E44">
+        <v>0.21466666666666667</v>
+      </c>
+      <c r="F44" s="3">
         <v>84</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="3">
         <v>113</v>
       </c>
     </row>
@@ -1467,16 +1467,16 @@
       <c r="C45" s="1">
         <v>7</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="3">
         <v>8717.7999999999993</v>
       </c>
-      <c r="E45" s="2">
-        <v>23.2</v>
-      </c>
-      <c r="F45" s="5">
+      <c r="E45">
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="F45" s="3">
         <v>85</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="3">
         <v>175</v>
       </c>
     </row>
@@ -1490,16 +1490,16 @@
       <c r="C46" s="1">
         <v>7</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="3">
         <v>8970.7000000000007</v>
       </c>
-      <c r="E46" s="2">
-        <v>17.725000000000001</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46">
+        <v>0.17725000000000002</v>
+      </c>
+      <c r="F46" s="3">
         <v>118</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="3">
         <v>76</v>
       </c>
     </row>
@@ -1513,16 +1513,16 @@
       <c r="C47" s="1">
         <v>7</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="3">
         <v>9123</v>
       </c>
-      <c r="E47" s="2">
-        <v>21.7</v>
-      </c>
-      <c r="F47" s="5">
+      <c r="E47">
+        <v>0.217</v>
+      </c>
+      <c r="F47" s="3">
         <v>88</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="3">
         <v>233</v>
       </c>
     </row>
@@ -1536,16 +1536,16 @@
       <c r="C48" s="1">
         <v>7</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="3">
         <v>8911.1</v>
       </c>
-      <c r="E48" s="2">
-        <v>26.924999999999997</v>
-      </c>
-      <c r="F48" s="5">
+      <c r="E48">
+        <v>0.26924999999999999</v>
+      </c>
+      <c r="F48" s="3">
         <v>41</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="3">
         <v>107</v>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
       <c r="C49" s="1">
         <v>7</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="3">
         <v>8979.9</v>
       </c>
-      <c r="E49" s="2">
-        <v>24.15</v>
-      </c>
-      <c r="F49" s="5">
+      <c r="E49">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="F49" s="3">
         <v>117</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="3">
         <v>119</v>
       </c>
     </row>
@@ -1582,17 +1582,5771 @@
       <c r="C50" s="1">
         <v>7</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="3">
         <v>9012</v>
       </c>
-      <c r="E50" s="2">
-        <v>17.233333333333334</v>
-      </c>
-      <c r="F50" s="5">
+      <c r="E50">
+        <v>0.17233333333333334</v>
+      </c>
+      <c r="F50" s="3">
         <v>82</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="3">
         <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="5">
+        <v>73605.3</v>
+      </c>
+      <c r="B51" s="5">
+        <v>130048.2</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="5">
+        <v>72671.899999999994</v>
+      </c>
+      <c r="B52" s="5">
+        <v>131475.4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="5">
+        <v>71890.100000000006</v>
+      </c>
+      <c r="B53" s="5">
+        <v>132401.60000000001</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="5">
+        <v>71164</v>
+      </c>
+      <c r="B54" s="5">
+        <v>133140.1</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="5">
+        <v>70510.8</v>
+      </c>
+      <c r="B55" s="5">
+        <v>133993.79999999999</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="5">
+        <v>70270</v>
+      </c>
+      <c r="B56" s="5">
+        <v>134505.29999999999</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="5">
+        <v>70209.600000000006</v>
+      </c>
+      <c r="B57" s="5">
+        <v>134882.20000000001</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="5">
+        <v>70241.100000000006</v>
+      </c>
+      <c r="B58" s="5">
+        <v>135123</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="5">
+        <v>70325.100000000006</v>
+      </c>
+      <c r="B59" s="5">
+        <v>135289.4</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
+      <c r="E59" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="5">
+        <v>70474.100000000006</v>
+      </c>
+      <c r="B60" s="5">
+        <v>135381.6</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="5">
+        <v>70798.600000000006</v>
+      </c>
+      <c r="B61" s="5">
+        <v>135516.4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="5">
+        <v>71176.800000000003</v>
+      </c>
+      <c r="B62" s="5">
+        <v>135526.6</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63" s="5">
+        <v>71783.100000000006</v>
+      </c>
+      <c r="B63" s="5">
+        <v>135504.6</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64" s="5">
+        <v>72570.2</v>
+      </c>
+      <c r="B64" s="5">
+        <v>135323.5</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <v>73487.899999999994</v>
+      </c>
+      <c r="B65" s="5">
+        <v>134981.29999999999</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="5">
+        <v>74205.399999999994</v>
+      </c>
+      <c r="B66" s="5">
+        <v>134571.20000000001</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="5">
+        <v>75001.600000000006</v>
+      </c>
+      <c r="B67" s="5">
+        <v>134036.70000000001</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="5">
+        <v>75617.100000000006</v>
+      </c>
+      <c r="B68" s="5">
+        <v>133674.20000000001</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="5">
+        <v>71888.800000000003</v>
+      </c>
+      <c r="B69" s="5">
+        <v>128227</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" s="5">
+        <v>71430.8</v>
+      </c>
+      <c r="B70" s="5">
+        <v>129206</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="5">
+        <v>70922.899999999994</v>
+      </c>
+      <c r="B71" s="5">
+        <v>130159.1</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="5">
+        <v>70343.5</v>
+      </c>
+      <c r="B72" s="5">
+        <v>131077.1</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="5">
+        <v>69644.399999999994</v>
+      </c>
+      <c r="B73" s="5">
+        <v>132054.1</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="5">
+        <v>69340.600000000006</v>
+      </c>
+      <c r="B74" s="5">
+        <v>132477</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="5">
+        <v>68930.399999999994</v>
+      </c>
+      <c r="B75" s="5">
+        <v>132984.9</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="5">
+        <v>68533.100000000006</v>
+      </c>
+      <c r="B76" s="5">
+        <v>133660.1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="5">
+        <v>68146.7</v>
+      </c>
+      <c r="B77" s="5">
+        <v>134385.20000000001</v>
+      </c>
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="5">
+        <v>67813</v>
+      </c>
+      <c r="B78" s="5">
+        <v>135148.6</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
+      </c>
+      <c r="E78" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="5">
+        <v>67773.3</v>
+      </c>
+      <c r="B79" s="5">
+        <v>135400.9</v>
+      </c>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="5">
+        <v>67773.3</v>
+      </c>
+      <c r="B80" s="5">
+        <v>135598.1</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="5">
+        <v>67773.3</v>
+      </c>
+      <c r="B81" s="5">
+        <v>135772.29999999999</v>
+      </c>
+      <c r="C81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="5">
+        <v>67805.8</v>
+      </c>
+      <c r="B82" s="5">
+        <v>135953.70000000001</v>
+      </c>
+      <c r="C82" s="5">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="5">
+        <v>67883.899999999994</v>
+      </c>
+      <c r="B83" s="5">
+        <v>136126.6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="5">
+        <v>68081</v>
+      </c>
+      <c r="B84" s="5">
+        <v>136363.20000000001</v>
+      </c>
+      <c r="C84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="5">
+        <v>68164</v>
+      </c>
+      <c r="B85" s="5">
+        <v>136438.29999999999</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="5">
+        <v>68424.5</v>
+      </c>
+      <c r="B86" s="5">
+        <v>136698.79999999999</v>
+      </c>
+      <c r="C86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="5">
+        <v>68815.3</v>
+      </c>
+      <c r="B87" s="5">
+        <v>136826.4</v>
+      </c>
+      <c r="C87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="5">
+        <v>69336.3</v>
+      </c>
+      <c r="B88" s="5">
+        <v>136902.9</v>
+      </c>
+      <c r="C88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="5">
+        <v>69764.100000000006</v>
+      </c>
+      <c r="B89" s="5">
+        <v>136976.4</v>
+      </c>
+      <c r="C89" s="5">
+        <v>1</v>
+      </c>
+      <c r="E89" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="5">
+        <v>70191.600000000006</v>
+      </c>
+      <c r="B90" s="5">
+        <v>136996.1</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="5">
+        <v>70354.3</v>
+      </c>
+      <c r="B91" s="5">
+        <v>137028.9</v>
+      </c>
+      <c r="C91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="5">
+        <v>71296.3</v>
+      </c>
+      <c r="B92" s="5">
+        <v>136933.1</v>
+      </c>
+      <c r="C92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="5">
+        <v>71559.399999999994</v>
+      </c>
+      <c r="B93" s="5">
+        <v>136907.5</v>
+      </c>
+      <c r="C93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="5">
+        <v>72356.3</v>
+      </c>
+      <c r="B94" s="5">
+        <v>136786.1</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="5">
+        <v>73178.5</v>
+      </c>
+      <c r="B95" s="5">
+        <v>136605.6</v>
+      </c>
+      <c r="C95" s="5">
+        <v>1</v>
+      </c>
+      <c r="E95" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="5">
+        <v>73829.7</v>
+      </c>
+      <c r="B96" s="5">
+        <v>136338.9</v>
+      </c>
+      <c r="C96" s="5">
+        <v>1</v>
+      </c>
+      <c r="E96" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="5">
+        <v>74179.5</v>
+      </c>
+      <c r="B97" s="5">
+        <v>136171.6</v>
+      </c>
+      <c r="C97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="5">
+        <v>74891.399999999994</v>
+      </c>
+      <c r="B98" s="5">
+        <v>135809.1</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="5">
+        <v>75460</v>
+      </c>
+      <c r="B99" s="5">
+        <v>135470.5</v>
+      </c>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" s="5">
+        <v>76002.600000000006</v>
+      </c>
+      <c r="B100" s="5">
+        <v>135095.1</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="5">
+        <v>76473.8</v>
+      </c>
+      <c r="B101" s="5">
+        <v>134782.5</v>
+      </c>
+      <c r="C101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="5">
+        <v>76944.600000000006</v>
+      </c>
+      <c r="B102" s="5">
+        <v>134335.29999999999</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="5">
+        <v>71128.600000000006</v>
+      </c>
+      <c r="B103" s="5">
+        <v>126028.2</v>
+      </c>
+      <c r="C103" s="5">
+        <v>1</v>
+      </c>
+      <c r="E103" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="5">
+        <v>70928.800000000003</v>
+      </c>
+      <c r="B104" s="5">
+        <v>126670.3</v>
+      </c>
+      <c r="C104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="5">
+        <v>70753.600000000006</v>
+      </c>
+      <c r="B105" s="5">
+        <v>127259.5</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="5">
+        <v>70352</v>
+      </c>
+      <c r="B106" s="5">
+        <v>128250</v>
+      </c>
+      <c r="C106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="5">
+        <v>70099.100000000006</v>
+      </c>
+      <c r="B107" s="5">
+        <v>128865.8</v>
+      </c>
+      <c r="C107" s="5">
+        <v>1</v>
+      </c>
+      <c r="E107" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="5">
+        <v>69777.2</v>
+      </c>
+      <c r="B108" s="5">
+        <v>129599.4</v>
+      </c>
+      <c r="C108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="5">
+        <v>69082</v>
+      </c>
+      <c r="B109" s="5">
+        <v>130830.7</v>
+      </c>
+      <c r="C109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="5">
+        <v>68668.3</v>
+      </c>
+      <c r="B110" s="5">
+        <v>131446.20000000001</v>
+      </c>
+      <c r="C110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="5">
+        <v>68240.2</v>
+      </c>
+      <c r="B111" s="5">
+        <v>132064</v>
+      </c>
+      <c r="C111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="5">
+        <v>67636.800000000003</v>
+      </c>
+      <c r="B112" s="5">
+        <v>132881.20000000001</v>
+      </c>
+      <c r="C112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="5">
+        <v>67035.399999999994</v>
+      </c>
+      <c r="B113" s="5">
+        <v>133643.70000000001</v>
+      </c>
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="5">
+        <v>65965.2</v>
+      </c>
+      <c r="B114" s="5">
+        <v>135101.1</v>
+      </c>
+      <c r="C114" s="5">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <v>65792</v>
+      </c>
+      <c r="B115" s="5">
+        <v>135356</v>
+      </c>
+      <c r="C115" s="5">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <v>65730.600000000006</v>
+      </c>
+      <c r="B116" s="5">
+        <v>135428.20000000001</v>
+      </c>
+      <c r="C116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <v>65544</v>
+      </c>
+      <c r="B117" s="5">
+        <v>135634.20000000001</v>
+      </c>
+      <c r="C117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
+        <v>65324.1</v>
+      </c>
+      <c r="B118" s="5">
+        <v>135874.70000000001</v>
+      </c>
+      <c r="C118" s="5">
+        <v>1</v>
+      </c>
+      <c r="E118" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <v>65177.8</v>
+      </c>
+      <c r="B119" s="5">
+        <v>136156.5</v>
+      </c>
+      <c r="C119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
+        <v>65147.6</v>
+      </c>
+      <c r="B120" s="5">
+        <v>136355.6</v>
+      </c>
+      <c r="C120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="5">
+        <v>65189</v>
+      </c>
+      <c r="B121" s="5">
+        <v>136658.1</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="5">
+        <v>65356.3</v>
+      </c>
+      <c r="B122" s="5">
+        <v>136941.6</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="5">
+        <v>65502.6</v>
+      </c>
+      <c r="B123" s="5">
+        <v>137118.39999999999</v>
+      </c>
+      <c r="C123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="5">
+        <v>65638.100000000006</v>
+      </c>
+      <c r="B124" s="5">
+        <v>137265.1</v>
+      </c>
+      <c r="C124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="5">
+        <v>65846.8</v>
+      </c>
+      <c r="B125" s="5">
+        <v>137411.4</v>
+      </c>
+      <c r="C125" s="5">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="5">
+        <v>66034.5</v>
+      </c>
+      <c r="B126" s="5">
+        <v>137463.9</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
+      </c>
+      <c r="E126" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" s="5">
+        <v>66600.100000000006</v>
+      </c>
+      <c r="B127" s="5">
+        <v>137683.70000000001</v>
+      </c>
+      <c r="C127" s="5">
+        <v>1</v>
+      </c>
+      <c r="E127" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" s="5">
+        <v>66881.899999999994</v>
+      </c>
+      <c r="B128" s="5">
+        <v>137777.9</v>
+      </c>
+      <c r="C128" s="5">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" s="5">
+        <v>69174.2</v>
+      </c>
+      <c r="B129" s="5">
+        <v>137997.1</v>
+      </c>
+      <c r="C129" s="5">
+        <v>1</v>
+      </c>
+      <c r="E129" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" s="5">
+        <v>69844.5</v>
+      </c>
+      <c r="B130" s="5">
+        <v>137962.9</v>
+      </c>
+      <c r="C130" s="5">
+        <v>1</v>
+      </c>
+      <c r="E130" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" s="5">
+        <v>70258.2</v>
+      </c>
+      <c r="B131" s="5">
+        <v>137977.4</v>
+      </c>
+      <c r="C131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" s="5">
+        <v>70378.3</v>
+      </c>
+      <c r="B132" s="5">
+        <v>137977.4</v>
+      </c>
+      <c r="C132" s="5">
+        <v>1</v>
+      </c>
+      <c r="E132" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" s="5">
+        <v>70940.899999999994</v>
+      </c>
+      <c r="B133" s="5">
+        <v>137869.4</v>
+      </c>
+      <c r="C133" s="5">
+        <v>1</v>
+      </c>
+      <c r="E133" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" s="5">
+        <v>71646.3</v>
+      </c>
+      <c r="B134" s="5">
+        <v>137763.5</v>
+      </c>
+      <c r="C134" s="5">
+        <v>1</v>
+      </c>
+      <c r="E134" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" s="5">
+        <v>72584</v>
+      </c>
+      <c r="B135" s="5">
+        <v>137589.9</v>
+      </c>
+      <c r="C135" s="5">
+        <v>1</v>
+      </c>
+      <c r="E135" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" s="5">
+        <v>73226.100000000006</v>
+      </c>
+      <c r="B136" s="5">
+        <v>137441.29999999999</v>
+      </c>
+      <c r="C136" s="5">
+        <v>1</v>
+      </c>
+      <c r="E136" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" s="5">
+        <v>73947.5</v>
+      </c>
+      <c r="B137" s="5">
+        <v>137188.29999999999</v>
+      </c>
+      <c r="C137" s="5">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" s="5">
+        <v>74763.100000000006</v>
+      </c>
+      <c r="B138" s="5">
+        <v>136813.29999999999</v>
+      </c>
+      <c r="C138" s="5">
+        <v>1</v>
+      </c>
+      <c r="E138" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" s="5">
+        <v>75551.8</v>
+      </c>
+      <c r="B139" s="5">
+        <v>136426.20000000001</v>
+      </c>
+      <c r="C139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" s="5">
+        <v>76328.399999999994</v>
+      </c>
+      <c r="B140" s="5">
+        <v>135930.79999999999</v>
+      </c>
+      <c r="C140" s="5">
+        <v>1</v>
+      </c>
+      <c r="E140" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" s="5">
+        <v>77252</v>
+      </c>
+      <c r="B141" s="5">
+        <v>135221.5</v>
+      </c>
+      <c r="C141" s="5">
+        <v>1</v>
+      </c>
+      <c r="E141" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" s="5">
+        <v>70325.8</v>
+      </c>
+      <c r="B142" s="5">
+        <v>125214.6</v>
+      </c>
+      <c r="C142" s="5">
+        <v>1</v>
+      </c>
+      <c r="E142" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" s="5">
+        <v>69726.7</v>
+      </c>
+      <c r="B143" s="5">
+        <v>127357.6</v>
+      </c>
+      <c r="C143" s="5">
+        <v>1</v>
+      </c>
+      <c r="E143" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" s="5">
+        <v>69076.399999999994</v>
+      </c>
+      <c r="B144" s="5">
+        <v>129045</v>
+      </c>
+      <c r="C144" s="5">
+        <v>1</v>
+      </c>
+      <c r="E144" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" s="5">
+        <v>68396.7</v>
+      </c>
+      <c r="B145" s="5">
+        <v>130415.7</v>
+      </c>
+      <c r="C145" s="5">
+        <v>1</v>
+      </c>
+      <c r="E145" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" s="5">
+        <v>67672.899999999994</v>
+      </c>
+      <c r="B146" s="5">
+        <v>131545.60000000001</v>
+      </c>
+      <c r="C146" s="5">
+        <v>1</v>
+      </c>
+      <c r="E146" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" s="5">
+        <v>66746.100000000006</v>
+      </c>
+      <c r="B147" s="5">
+        <v>132720.5</v>
+      </c>
+      <c r="C147" s="5">
+        <v>1</v>
+      </c>
+      <c r="E147" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" s="5">
+        <v>65669</v>
+      </c>
+      <c r="B148" s="5">
+        <v>133853.70000000001</v>
+      </c>
+      <c r="C148" s="5">
+        <v>1</v>
+      </c>
+      <c r="E148" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" s="5">
+        <v>64800.5</v>
+      </c>
+      <c r="B149" s="5">
+        <v>134727</v>
+      </c>
+      <c r="C149" s="5">
+        <v>1</v>
+      </c>
+      <c r="E149" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" s="5">
+        <v>64154.5</v>
+      </c>
+      <c r="B150" s="5">
+        <v>135290.70000000001</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1</v>
+      </c>
+      <c r="E150" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A151" s="5">
+        <v>63697.5</v>
+      </c>
+      <c r="B151" s="5">
+        <v>135872.1</v>
+      </c>
+      <c r="C151" s="5">
+        <v>1</v>
+      </c>
+      <c r="E151" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A152" s="5">
+        <v>63481</v>
+      </c>
+      <c r="B152" s="5">
+        <v>136434.4</v>
+      </c>
+      <c r="C152" s="5">
+        <v>1</v>
+      </c>
+      <c r="E152" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A153" s="5">
+        <v>63533.5</v>
+      </c>
+      <c r="B153" s="5">
+        <v>136827.1</v>
+      </c>
+      <c r="C153" s="5">
+        <v>1</v>
+      </c>
+      <c r="E153" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="5">
+        <v>63609.9</v>
+      </c>
+      <c r="B154" s="5">
+        <v>137283.79999999999</v>
+      </c>
+      <c r="C154" s="5">
+        <v>1</v>
+      </c>
+      <c r="E154" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A155" s="5">
+        <v>63854</v>
+      </c>
+      <c r="B155" s="5">
+        <v>137593.20000000001</v>
+      </c>
+      <c r="C155" s="5">
+        <v>1</v>
+      </c>
+      <c r="E155" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A156" s="5">
+        <v>64265.1</v>
+      </c>
+      <c r="B156" s="5">
+        <v>137806.1</v>
+      </c>
+      <c r="C156" s="5">
+        <v>1</v>
+      </c>
+      <c r="E156" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="5">
+        <v>64676.2</v>
+      </c>
+      <c r="B157" s="5">
+        <v>138006.20000000001</v>
+      </c>
+      <c r="C157" s="5">
+        <v>1</v>
+      </c>
+      <c r="E157" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A158" s="5">
+        <v>65176.2</v>
+      </c>
+      <c r="B158" s="5">
+        <v>138183.4</v>
+      </c>
+      <c r="C158" s="5">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A159" s="5">
+        <v>65703.399999999994</v>
+      </c>
+      <c r="B159" s="5">
+        <v>138285.79999999999</v>
+      </c>
+      <c r="C159" s="5">
+        <v>1</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="5">
+        <v>66192.899999999994</v>
+      </c>
+      <c r="B160" s="5">
+        <v>138387.1</v>
+      </c>
+      <c r="C160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A161" s="5">
+        <v>66895</v>
+      </c>
+      <c r="B161" s="5">
+        <v>138557.1</v>
+      </c>
+      <c r="C161" s="5">
+        <v>1</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A162" s="5">
+        <v>67786.7</v>
+      </c>
+      <c r="B162" s="5">
+        <v>138719.5</v>
+      </c>
+      <c r="C162" s="5">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A163" s="5">
+        <v>68378.899999999994</v>
+      </c>
+      <c r="B163" s="5">
+        <v>138747.70000000001</v>
+      </c>
+      <c r="C163" s="5">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A164" s="5">
+        <v>69276.2</v>
+      </c>
+      <c r="B164" s="5">
+        <v>138695.5</v>
+      </c>
+      <c r="C164" s="5">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A165" s="5">
+        <v>70135.199999999997</v>
+      </c>
+      <c r="B165" s="5">
+        <v>138668</v>
+      </c>
+      <c r="C165" s="5">
+        <v>1</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A166" s="5">
+        <v>71175.5</v>
+      </c>
+      <c r="B166" s="5">
+        <v>138455.4</v>
+      </c>
+      <c r="C166" s="5">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A167" s="5">
+        <v>72342.899999999994</v>
+      </c>
+      <c r="B167" s="5">
+        <v>138208.29999999999</v>
+      </c>
+      <c r="C167" s="5">
+        <v>1</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A168" s="5">
+        <v>73548.600000000006</v>
+      </c>
+      <c r="B168" s="5">
+        <v>137949.79999999999</v>
+      </c>
+      <c r="C168" s="5">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A169" s="5">
+        <v>74326.399999999994</v>
+      </c>
+      <c r="B169" s="5">
+        <v>137642.1</v>
+      </c>
+      <c r="C169" s="5">
+        <v>1</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A170" s="5">
+        <v>75436.7</v>
+      </c>
+      <c r="B170" s="5">
+        <v>137166.29999999999</v>
+      </c>
+      <c r="C170" s="5">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A171" s="5">
+        <v>76724.899999999994</v>
+      </c>
+      <c r="B171" s="5">
+        <v>136420.4</v>
+      </c>
+      <c r="C171" s="5">
+        <v>1</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A172" s="5">
+        <v>62943.6</v>
+      </c>
+      <c r="B172" s="5">
+        <v>114692.6</v>
+      </c>
+      <c r="C172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A173" s="5">
+        <v>64466.5</v>
+      </c>
+      <c r="B173" s="5">
+        <v>117712.3</v>
+      </c>
+      <c r="C173" s="5">
+        <v>1</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A174" s="5">
+        <v>65414</v>
+      </c>
+      <c r="B174" s="5">
+        <v>120060.4</v>
+      </c>
+      <c r="C174" s="5">
+        <v>1</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A175" s="5">
+        <v>66215.199999999997</v>
+      </c>
+      <c r="B175" s="5">
+        <v>122215.2</v>
+      </c>
+      <c r="C175" s="5">
+        <v>1</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A176" s="5">
+        <v>66550.5</v>
+      </c>
+      <c r="B176" s="5">
+        <v>123865.2</v>
+      </c>
+      <c r="C176" s="5">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A177" s="5">
+        <v>66846.100000000006</v>
+      </c>
+      <c r="B177" s="5">
+        <v>125097.8</v>
+      </c>
+      <c r="C177" s="5">
+        <v>1</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A178" s="5">
+        <v>66967.8</v>
+      </c>
+      <c r="B178" s="5">
+        <v>126224.4</v>
+      </c>
+      <c r="C178" s="5">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A179" s="5">
+        <v>67009.2</v>
+      </c>
+      <c r="B179" s="5">
+        <v>127046.3</v>
+      </c>
+      <c r="C179" s="5">
+        <v>1</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A180" s="5">
+        <v>66918.3</v>
+      </c>
+      <c r="B180" s="5">
+        <v>128104.3</v>
+      </c>
+      <c r="C180" s="5">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A181" s="5">
+        <v>66688.7</v>
+      </c>
+      <c r="B181" s="5">
+        <v>129158.8</v>
+      </c>
+      <c r="C181" s="5">
+        <v>1</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A182" s="5">
+        <v>66274.899999999994</v>
+      </c>
+      <c r="B182" s="5">
+        <v>130006.2</v>
+      </c>
+      <c r="C182" s="5">
+        <v>1</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A183" s="5">
+        <v>65792</v>
+      </c>
+      <c r="B183" s="5">
+        <v>131091.9</v>
+      </c>
+      <c r="C183" s="5">
+        <v>1</v>
+      </c>
+      <c r="E183" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A184" s="5">
+        <v>65114.2</v>
+      </c>
+      <c r="B184" s="5">
+        <v>131920</v>
+      </c>
+      <c r="C184" s="5">
+        <v>1</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A185" s="5">
+        <v>64526.6</v>
+      </c>
+      <c r="B185" s="5">
+        <v>132661.70000000001</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A186" s="5">
+        <v>63965.9</v>
+      </c>
+      <c r="B186" s="5">
+        <v>133354</v>
+      </c>
+      <c r="C186" s="5">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A187" s="5">
+        <v>63315</v>
+      </c>
+      <c r="B187" s="5">
+        <v>134107</v>
+      </c>
+      <c r="C187" s="5">
+        <v>1</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A188" s="5">
+        <v>62450.5</v>
+      </c>
+      <c r="B188" s="5">
+        <v>134829.1</v>
+      </c>
+      <c r="C188" s="5">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A189" s="5">
+        <v>62059.7</v>
+      </c>
+      <c r="B189" s="5">
+        <v>135298.6</v>
+      </c>
+      <c r="C189" s="5">
+        <v>1</v>
+      </c>
+      <c r="E189" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A190" s="5">
+        <v>61696.5</v>
+      </c>
+      <c r="B190" s="5">
+        <v>136147.29999999999</v>
+      </c>
+      <c r="C190" s="5">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A191" s="5">
+        <v>61605.3</v>
+      </c>
+      <c r="B191" s="5">
+        <v>136738.5</v>
+      </c>
+      <c r="C191" s="5">
+        <v>1</v>
+      </c>
+      <c r="E191" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A192" s="5">
+        <v>61691.9</v>
+      </c>
+      <c r="B192" s="5">
+        <v>137283.5</v>
+      </c>
+      <c r="C192" s="5">
+        <v>1</v>
+      </c>
+      <c r="E192" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A193" s="5">
+        <v>61857.599999999999</v>
+      </c>
+      <c r="B193" s="5">
+        <v>137704.4</v>
+      </c>
+      <c r="C193" s="5">
+        <v>1</v>
+      </c>
+      <c r="E193" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A194" s="5">
+        <v>62160.800000000003</v>
+      </c>
+      <c r="B194" s="5">
+        <v>138167</v>
+      </c>
+      <c r="C194" s="5">
+        <v>1</v>
+      </c>
+      <c r="E194" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A195" s="5">
+        <v>62417.3</v>
+      </c>
+      <c r="B195" s="5">
+        <v>138489.5</v>
+      </c>
+      <c r="C195" s="5">
+        <v>1</v>
+      </c>
+      <c r="E195" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A196" s="5">
+        <v>62863.199999999997</v>
+      </c>
+      <c r="B196" s="5">
+        <v>138804.1</v>
+      </c>
+      <c r="C196" s="5">
+        <v>1</v>
+      </c>
+      <c r="E196" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A197" s="5">
+        <v>63286.7</v>
+      </c>
+      <c r="B197" s="5">
+        <v>139017.4</v>
+      </c>
+      <c r="C197" s="5">
+        <v>1</v>
+      </c>
+      <c r="E197" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A198" s="5">
+        <v>63784.5</v>
+      </c>
+      <c r="B198" s="5">
+        <v>139283.1</v>
+      </c>
+      <c r="C198" s="5">
+        <v>1</v>
+      </c>
+      <c r="E198" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A199" s="5">
+        <v>64321.9</v>
+      </c>
+      <c r="B199" s="5">
+        <v>139474.1</v>
+      </c>
+      <c r="C199" s="5">
+        <v>1</v>
+      </c>
+      <c r="E199" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A200" s="5">
+        <v>64985.599999999999</v>
+      </c>
+      <c r="B200" s="5">
+        <v>139668.29999999999</v>
+      </c>
+      <c r="C200" s="5">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A201" s="5">
+        <v>65639.100000000006</v>
+      </c>
+      <c r="B201" s="5">
+        <v>139774</v>
+      </c>
+      <c r="C201" s="5">
+        <v>1</v>
+      </c>
+      <c r="E201" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A202" s="5">
+        <v>66579.100000000006</v>
+      </c>
+      <c r="B202" s="5">
+        <v>140013.1</v>
+      </c>
+      <c r="C202" s="5">
+        <v>1</v>
+      </c>
+      <c r="E202" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A203" s="5">
+        <v>67383.199999999997</v>
+      </c>
+      <c r="B203" s="5">
+        <v>140148</v>
+      </c>
+      <c r="C203" s="5">
+        <v>1</v>
+      </c>
+      <c r="E203" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A204" s="5">
+        <v>68290</v>
+      </c>
+      <c r="B204" s="5">
+        <v>140210</v>
+      </c>
+      <c r="C204" s="5">
+        <v>1</v>
+      </c>
+      <c r="E204" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A205" s="5">
+        <v>69233.600000000006</v>
+      </c>
+      <c r="B205" s="5">
+        <v>140310.70000000001</v>
+      </c>
+      <c r="C205" s="5">
+        <v>1</v>
+      </c>
+      <c r="E205" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A206" s="5">
+        <v>69966.2</v>
+      </c>
+      <c r="B206" s="5">
+        <v>140292</v>
+      </c>
+      <c r="C206" s="5">
+        <v>1</v>
+      </c>
+      <c r="E206" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A207" s="5">
+        <v>71076.100000000006</v>
+      </c>
+      <c r="B207" s="5">
+        <v>140308.70000000001</v>
+      </c>
+      <c r="C207" s="5">
+        <v>1</v>
+      </c>
+      <c r="E207" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A208" s="5">
+        <v>72086.3</v>
+      </c>
+      <c r="B208" s="5">
+        <v>140284.79999999999</v>
+      </c>
+      <c r="C208" s="5">
+        <v>1</v>
+      </c>
+      <c r="E208" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A209" s="5">
+        <v>73452.100000000006</v>
+      </c>
+      <c r="B209" s="5">
+        <v>140169.29999999999</v>
+      </c>
+      <c r="C209" s="5">
+        <v>1</v>
+      </c>
+      <c r="E209" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A210" s="5">
+        <v>75465.899999999994</v>
+      </c>
+      <c r="B210" s="5">
+        <v>139881.60000000001</v>
+      </c>
+      <c r="C210" s="5">
+        <v>1</v>
+      </c>
+      <c r="E210" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A211" s="5">
+        <v>77519.100000000006</v>
+      </c>
+      <c r="B211" s="5">
+        <v>139628.4</v>
+      </c>
+      <c r="C211" s="5">
+        <v>1</v>
+      </c>
+      <c r="E211" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A212" s="5">
+        <v>80007.3</v>
+      </c>
+      <c r="B212" s="5">
+        <v>139037.70000000001</v>
+      </c>
+      <c r="C212" s="5">
+        <v>1</v>
+      </c>
+      <c r="E212" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A213" s="5">
+        <v>54449.8</v>
+      </c>
+      <c r="B213" s="5">
+        <v>109961.3</v>
+      </c>
+      <c r="C213" s="5">
+        <v>1</v>
+      </c>
+      <c r="E213" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A214" s="5">
+        <v>57589.599999999999</v>
+      </c>
+      <c r="B214" s="5">
+        <v>113402.6</v>
+      </c>
+      <c r="C214" s="5">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A215" s="5">
+        <v>59901.2</v>
+      </c>
+      <c r="B215" s="5">
+        <v>116177.8</v>
+      </c>
+      <c r="C215" s="5">
+        <v>1</v>
+      </c>
+      <c r="E215" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A216" s="5">
+        <v>61447.8</v>
+      </c>
+      <c r="B216" s="5">
+        <v>118301.8</v>
+      </c>
+      <c r="C216" s="5">
+        <v>1</v>
+      </c>
+      <c r="E216" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A217" s="5">
+        <v>62933.4</v>
+      </c>
+      <c r="B217" s="5">
+        <v>120828.1</v>
+      </c>
+      <c r="C217" s="5">
+        <v>1</v>
+      </c>
+      <c r="E217" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A218" s="5">
+        <v>63796.9</v>
+      </c>
+      <c r="B218" s="5">
+        <v>122529.9</v>
+      </c>
+      <c r="C218" s="5">
+        <v>1</v>
+      </c>
+      <c r="E218" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A219" s="5">
+        <v>64446.5</v>
+      </c>
+      <c r="B219" s="5">
+        <v>124213.6</v>
+      </c>
+      <c r="C219" s="5">
+        <v>1</v>
+      </c>
+      <c r="E219" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A220" s="5">
+        <v>64813.7</v>
+      </c>
+      <c r="B220" s="5">
+        <v>126079.1</v>
+      </c>
+      <c r="C220" s="5">
+        <v>1</v>
+      </c>
+      <c r="E220" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A221" s="5">
+        <v>64924.5</v>
+      </c>
+      <c r="B221" s="5">
+        <v>127142.7</v>
+      </c>
+      <c r="C221" s="5">
+        <v>1</v>
+      </c>
+      <c r="E221" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A222" s="5">
+        <v>64810.400000000001</v>
+      </c>
+      <c r="B222" s="5">
+        <v>128124.3</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1</v>
+      </c>
+      <c r="E222" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A223" s="5">
+        <v>64299.5</v>
+      </c>
+      <c r="B223" s="5">
+        <v>129310.39999999999</v>
+      </c>
+      <c r="C223" s="5">
+        <v>1</v>
+      </c>
+      <c r="E223" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A224" s="5">
+        <v>63678.2</v>
+      </c>
+      <c r="B224" s="5">
+        <v>130392.4</v>
+      </c>
+      <c r="C224" s="5">
+        <v>1</v>
+      </c>
+      <c r="E224" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A225" s="5">
+        <v>62855</v>
+      </c>
+      <c r="B225" s="5">
+        <v>131456.4</v>
+      </c>
+      <c r="C225" s="5">
+        <v>1</v>
+      </c>
+      <c r="E225" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A226" s="5">
+        <v>61982</v>
+      </c>
+      <c r="B226" s="5">
+        <v>132506.20000000001</v>
+      </c>
+      <c r="C226" s="5">
+        <v>1</v>
+      </c>
+      <c r="E226" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A227" s="5">
+        <v>61344.2</v>
+      </c>
+      <c r="B227" s="5">
+        <v>133247.1</v>
+      </c>
+      <c r="C227" s="5">
+        <v>1</v>
+      </c>
+      <c r="E227" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A228" s="5">
+        <v>60726.7</v>
+      </c>
+      <c r="B228" s="5">
+        <v>134165</v>
+      </c>
+      <c r="C228" s="5">
+        <v>1</v>
+      </c>
+      <c r="E228" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A229" s="5">
+        <v>60289.7</v>
+      </c>
+      <c r="B229" s="5">
+        <v>134948.79999999999</v>
+      </c>
+      <c r="C229" s="5">
+        <v>1</v>
+      </c>
+      <c r="E229" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A230" s="5">
+        <v>60032.2</v>
+      </c>
+      <c r="B230" s="5">
+        <v>135623.70000000001</v>
+      </c>
+      <c r="C230" s="5">
+        <v>1</v>
+      </c>
+      <c r="E230" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A231" s="5">
+        <v>59929.8</v>
+      </c>
+      <c r="B231" s="5">
+        <v>136151.29999999999</v>
+      </c>
+      <c r="C231" s="5">
+        <v>1</v>
+      </c>
+      <c r="E231" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A232" s="5">
+        <v>59875.7</v>
+      </c>
+      <c r="B232" s="5">
+        <v>136768.4</v>
+      </c>
+      <c r="C232" s="5">
+        <v>1</v>
+      </c>
+      <c r="E232" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A233" s="5">
+        <v>59930.8</v>
+      </c>
+      <c r="B233" s="5">
+        <v>137552.79999999999</v>
+      </c>
+      <c r="C233" s="5">
+        <v>1</v>
+      </c>
+      <c r="E233" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A234" s="5">
+        <v>60165.7</v>
+      </c>
+      <c r="B234" s="5">
+        <v>138215.6</v>
+      </c>
+      <c r="C234" s="5">
+        <v>1</v>
+      </c>
+      <c r="E234" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A235" s="5">
+        <v>60465.599999999999</v>
+      </c>
+      <c r="B235" s="5">
+        <v>138804.1</v>
+      </c>
+      <c r="C235" s="5">
+        <v>1</v>
+      </c>
+      <c r="E235" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A236" s="5">
+        <v>60883.199999999997</v>
+      </c>
+      <c r="B236" s="5">
+        <v>139244.4</v>
+      </c>
+      <c r="C236" s="5">
+        <v>1</v>
+      </c>
+      <c r="E236" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A237" s="5">
+        <v>61301.5</v>
+      </c>
+      <c r="B237" s="5">
+        <v>139646.70000000001</v>
+      </c>
+      <c r="C237" s="5">
+        <v>1</v>
+      </c>
+      <c r="E237" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A238" s="5">
+        <v>61809.4</v>
+      </c>
+      <c r="B238" s="5">
+        <v>140001</v>
+      </c>
+      <c r="C238" s="5">
+        <v>1</v>
+      </c>
+      <c r="E238" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A239" s="5">
+        <v>62194.2</v>
+      </c>
+      <c r="B239" s="5">
+        <v>140251</v>
+      </c>
+      <c r="C239" s="5">
+        <v>1</v>
+      </c>
+      <c r="E239" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A240" s="5">
+        <v>62803.8</v>
+      </c>
+      <c r="B240" s="5">
+        <v>140582.70000000001</v>
+      </c>
+      <c r="C240" s="5">
+        <v>1</v>
+      </c>
+      <c r="E240" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A241" s="5">
+        <v>63539.7</v>
+      </c>
+      <c r="B241" s="5">
+        <v>140905.20000000001</v>
+      </c>
+      <c r="C241" s="5">
+        <v>1</v>
+      </c>
+      <c r="E241" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A242" s="5">
+        <v>64439.3</v>
+      </c>
+      <c r="B242" s="5">
+        <v>141244.4</v>
+      </c>
+      <c r="C242" s="5">
+        <v>1</v>
+      </c>
+      <c r="E242" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A243" s="5">
+        <v>65365.5</v>
+      </c>
+      <c r="B243" s="5">
+        <v>141534.1</v>
+      </c>
+      <c r="C243" s="5">
+        <v>1</v>
+      </c>
+      <c r="E243" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A244" s="5">
+        <v>66507.899999999994</v>
+      </c>
+      <c r="B244" s="5">
+        <v>141753.60000000001</v>
+      </c>
+      <c r="C244" s="5">
+        <v>1</v>
+      </c>
+      <c r="E244" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A245" s="5">
+        <v>67613.2</v>
+      </c>
+      <c r="B245" s="5">
+        <v>141946.9</v>
+      </c>
+      <c r="C245" s="5">
+        <v>1</v>
+      </c>
+      <c r="E245" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A246" s="5">
+        <v>68783.8</v>
+      </c>
+      <c r="B246" s="5">
+        <v>142066.29999999999</v>
+      </c>
+      <c r="C246" s="5">
+        <v>1</v>
+      </c>
+      <c r="E246" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A247" s="5">
+        <v>70319.600000000006</v>
+      </c>
+      <c r="B247" s="5">
+        <v>142207.70000000001</v>
+      </c>
+      <c r="C247" s="5">
+        <v>1</v>
+      </c>
+      <c r="E247" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A248" s="5">
+        <v>72262.5</v>
+      </c>
+      <c r="B248" s="5">
+        <v>142221.1</v>
+      </c>
+      <c r="C248" s="5">
+        <v>1</v>
+      </c>
+      <c r="E248" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A249" s="5">
+        <v>75042.7</v>
+      </c>
+      <c r="B249" s="5">
+        <v>142054.5</v>
+      </c>
+      <c r="C249" s="5">
+        <v>1</v>
+      </c>
+      <c r="E249" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A250" s="5">
+        <v>75586.899999999994</v>
+      </c>
+      <c r="B250" s="5">
+        <v>141993.1</v>
+      </c>
+      <c r="C250" s="5">
+        <v>1</v>
+      </c>
+      <c r="E250" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A251" s="5">
+        <v>77390</v>
+      </c>
+      <c r="B251" s="5">
+        <v>141834.9</v>
+      </c>
+      <c r="C251" s="5">
+        <v>1</v>
+      </c>
+      <c r="E251" s="5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A252" s="5">
+        <v>48978.3</v>
+      </c>
+      <c r="B252" s="5">
+        <v>109766.39999999999</v>
+      </c>
+      <c r="C252" s="5">
+        <v>1</v>
+      </c>
+      <c r="E252" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A253" s="5">
+        <v>52091.9</v>
+      </c>
+      <c r="B253" s="5">
+        <v>112765.1</v>
+      </c>
+      <c r="C253" s="5">
+        <v>1</v>
+      </c>
+      <c r="E253" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A254" s="5">
+        <v>54653.5</v>
+      </c>
+      <c r="B254" s="5">
+        <v>115155.5</v>
+      </c>
+      <c r="C254" s="5">
+        <v>1</v>
+      </c>
+      <c r="E254" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A255" s="5">
+        <v>57083</v>
+      </c>
+      <c r="B255" s="5">
+        <v>117290.4</v>
+      </c>
+      <c r="C255" s="5">
+        <v>1</v>
+      </c>
+      <c r="E255" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A256" s="5">
+        <v>58938.7</v>
+      </c>
+      <c r="B256" s="5">
+        <v>119182.39999999999</v>
+      </c>
+      <c r="C256" s="5">
+        <v>1</v>
+      </c>
+      <c r="E256" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A257" s="5">
+        <v>60138.5</v>
+      </c>
+      <c r="B257" s="5">
+        <v>120577.8</v>
+      </c>
+      <c r="C257" s="5">
+        <v>1</v>
+      </c>
+      <c r="E257" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A258" s="5">
+        <v>60943.199999999997</v>
+      </c>
+      <c r="B258" s="5">
+        <v>121646.7</v>
+      </c>
+      <c r="C258" s="5">
+        <v>1</v>
+      </c>
+      <c r="E258" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A259" s="5">
+        <v>61537.4</v>
+      </c>
+      <c r="B259" s="5">
+        <v>122558.7</v>
+      </c>
+      <c r="C259" s="5">
+        <v>1</v>
+      </c>
+      <c r="E259" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A260" s="5">
+        <v>61986.2</v>
+      </c>
+      <c r="B260" s="5">
+        <v>123239.8</v>
+      </c>
+      <c r="C260" s="5">
+        <v>1</v>
+      </c>
+      <c r="E260" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A261" s="5">
+        <v>62307.1</v>
+      </c>
+      <c r="B261" s="5">
+        <v>123993.1</v>
+      </c>
+      <c r="C261" s="5">
+        <v>1</v>
+      </c>
+      <c r="E261" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A262" s="5">
+        <v>62564</v>
+      </c>
+      <c r="B262" s="5">
+        <v>124782.5</v>
+      </c>
+      <c r="C262" s="5">
+        <v>1</v>
+      </c>
+      <c r="E262" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A263" s="5">
+        <v>62707.4</v>
+      </c>
+      <c r="B263" s="5">
+        <v>125569.2</v>
+      </c>
+      <c r="C263" s="5">
+        <v>1</v>
+      </c>
+      <c r="E263" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A264" s="5">
+        <v>62850.7</v>
+      </c>
+      <c r="B264" s="5">
+        <v>126355.6</v>
+      </c>
+      <c r="C264" s="5">
+        <v>1</v>
+      </c>
+      <c r="E264" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A265" s="5">
+        <v>62819.199999999997</v>
+      </c>
+      <c r="B265" s="5">
+        <v>127074.5</v>
+      </c>
+      <c r="C265" s="5">
+        <v>1</v>
+      </c>
+      <c r="E265" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A266" s="5">
+        <v>62748</v>
+      </c>
+      <c r="B266" s="5">
+        <v>127855.3</v>
+      </c>
+      <c r="C266" s="5">
+        <v>1</v>
+      </c>
+      <c r="E266" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A267" s="5">
+        <v>62540</v>
+      </c>
+      <c r="B267" s="5">
+        <v>128569.60000000001</v>
+      </c>
+      <c r="C267" s="5">
+        <v>1</v>
+      </c>
+      <c r="E267" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A268" s="5">
+        <v>62258.5</v>
+      </c>
+      <c r="B268" s="5">
+        <v>129193.2</v>
+      </c>
+      <c r="C268" s="5">
+        <v>1</v>
+      </c>
+      <c r="E268" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A269" s="5">
+        <v>61704.7</v>
+      </c>
+      <c r="B269" s="5">
+        <v>130100.4</v>
+      </c>
+      <c r="C269" s="5">
+        <v>1</v>
+      </c>
+      <c r="E269" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A270" s="5">
+        <v>60898</v>
+      </c>
+      <c r="B270" s="5">
+        <v>131025.9</v>
+      </c>
+      <c r="C270" s="5">
+        <v>1</v>
+      </c>
+      <c r="E270" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A271" s="5">
+        <v>60184.4</v>
+      </c>
+      <c r="B271" s="5">
+        <v>131764.4</v>
+      </c>
+      <c r="C271" s="5">
+        <v>1</v>
+      </c>
+      <c r="E271" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A272" s="5">
+        <v>59674.2</v>
+      </c>
+      <c r="B272" s="5">
+        <v>132445.5</v>
+      </c>
+      <c r="C272" s="5">
+        <v>1</v>
+      </c>
+      <c r="E272" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A273" s="5">
+        <v>59095.5</v>
+      </c>
+      <c r="B273" s="5">
+        <v>133339.20000000001</v>
+      </c>
+      <c r="C273" s="5">
+        <v>1</v>
+      </c>
+      <c r="E273" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A274" s="5">
+        <v>58595.8</v>
+      </c>
+      <c r="B274" s="5">
+        <v>134108.6</v>
+      </c>
+      <c r="C274" s="5">
+        <v>1</v>
+      </c>
+      <c r="E274" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A275" s="5">
+        <v>58285.8</v>
+      </c>
+      <c r="B275" s="5">
+        <v>134857.9</v>
+      </c>
+      <c r="C275" s="5">
+        <v>1</v>
+      </c>
+      <c r="E275" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A276" s="5">
+        <v>58086.9</v>
+      </c>
+      <c r="B276" s="5">
+        <v>135698.79999999999</v>
+      </c>
+      <c r="C276" s="5">
+        <v>1</v>
+      </c>
+      <c r="E276" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A277" s="5">
+        <v>57896</v>
+      </c>
+      <c r="B277" s="5">
+        <v>136716.20000000001</v>
+      </c>
+      <c r="C277" s="5">
+        <v>1</v>
+      </c>
+      <c r="E277" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A278" s="5">
+        <v>57983.3</v>
+      </c>
+      <c r="B278" s="5">
+        <v>137715.9</v>
+      </c>
+      <c r="C278" s="5">
+        <v>1</v>
+      </c>
+      <c r="E278" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A279" s="5">
+        <v>58368.1</v>
+      </c>
+      <c r="B279" s="5">
+        <v>138912.70000000001</v>
+      </c>
+      <c r="C279" s="5">
+        <v>1</v>
+      </c>
+      <c r="E279" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A280" s="5">
+        <v>58864.800000000003</v>
+      </c>
+      <c r="B280" s="5">
+        <v>139696.20000000001</v>
+      </c>
+      <c r="C280" s="5">
+        <v>1</v>
+      </c>
+      <c r="E280" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A281" s="5">
+        <v>59649.3</v>
+      </c>
+      <c r="B281" s="5">
+        <v>140575.1</v>
+      </c>
+      <c r="C281" s="5">
+        <v>1</v>
+      </c>
+      <c r="E281" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A282" s="5">
+        <v>60552.2</v>
+      </c>
+      <c r="B282" s="5">
+        <v>141268.4</v>
+      </c>
+      <c r="C282" s="5">
+        <v>1</v>
+      </c>
+      <c r="E282" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A283" s="5">
+        <v>61408.800000000003</v>
+      </c>
+      <c r="B283" s="5">
+        <v>141795.9</v>
+      </c>
+      <c r="C283" s="5">
+        <v>1</v>
+      </c>
+      <c r="E283" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A284" s="5">
+        <v>62378</v>
+      </c>
+      <c r="B284" s="5">
+        <v>142377</v>
+      </c>
+      <c r="C284" s="5">
+        <v>1</v>
+      </c>
+      <c r="E284" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A285" s="5">
+        <v>63587.6</v>
+      </c>
+      <c r="B285" s="5">
+        <v>142913.70000000001</v>
+      </c>
+      <c r="C285" s="5">
+        <v>1</v>
+      </c>
+      <c r="E285" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A286" s="5">
+        <v>64763.1</v>
+      </c>
+      <c r="B286" s="5">
+        <v>143323.5</v>
+      </c>
+      <c r="C286" s="5">
+        <v>1</v>
+      </c>
+      <c r="E286" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A287" s="5">
+        <v>66481.3</v>
+      </c>
+      <c r="B287" s="5">
+        <v>143722.4</v>
+      </c>
+      <c r="C287" s="5">
+        <v>1</v>
+      </c>
+      <c r="E287" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A288" s="5">
+        <v>67961.899999999994</v>
+      </c>
+      <c r="B288" s="5">
+        <v>144039.4</v>
+      </c>
+      <c r="C288" s="5">
+        <v>1</v>
+      </c>
+      <c r="E288" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A289" s="5">
+        <v>69508.5</v>
+      </c>
+      <c r="B289" s="5">
+        <v>144244.1</v>
+      </c>
+      <c r="C289" s="5">
+        <v>1</v>
+      </c>
+      <c r="E289" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A290" s="5">
+        <v>71360.899999999994</v>
+      </c>
+      <c r="B290" s="5">
+        <v>144343.5</v>
+      </c>
+      <c r="C290" s="5">
+        <v>1</v>
+      </c>
+      <c r="E290" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A291" s="5">
+        <v>72850.399999999994</v>
+      </c>
+      <c r="B291" s="5">
+        <v>144319.9</v>
+      </c>
+      <c r="C291" s="5">
+        <v>1</v>
+      </c>
+      <c r="E291" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A292" s="5">
+        <v>75488.5</v>
+      </c>
+      <c r="B292" s="5">
+        <v>144288.4</v>
+      </c>
+      <c r="C292" s="5">
+        <v>1</v>
+      </c>
+      <c r="E292" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A293" s="5">
+        <v>46608.4</v>
+      </c>
+      <c r="B293" s="5">
+        <v>112311</v>
+      </c>
+      <c r="C293" s="5">
+        <v>1</v>
+      </c>
+      <c r="E293" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A294" s="5">
+        <v>47682.7</v>
+      </c>
+      <c r="B294" s="5">
+        <v>113087.4</v>
+      </c>
+      <c r="C294" s="5">
+        <v>1</v>
+      </c>
+      <c r="E294" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A295" s="5">
+        <v>48756.9</v>
+      </c>
+      <c r="B295" s="5">
+        <v>113863.8</v>
+      </c>
+      <c r="C295" s="5">
+        <v>1</v>
+      </c>
+      <c r="E295" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A296" s="5">
+        <v>51069.9</v>
+      </c>
+      <c r="B296" s="5">
+        <v>115629.3</v>
+      </c>
+      <c r="C296" s="5">
+        <v>1</v>
+      </c>
+      <c r="E296" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A297" s="5">
+        <v>51811.9</v>
+      </c>
+      <c r="B297" s="5">
+        <v>116201.2</v>
+      </c>
+      <c r="C297" s="5">
+        <v>1</v>
+      </c>
+      <c r="E297" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A298" s="5">
+        <v>52554</v>
+      </c>
+      <c r="B298" s="5">
+        <v>116773.1</v>
+      </c>
+      <c r="C298" s="5">
+        <v>1</v>
+      </c>
+      <c r="E298" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A299" s="5">
+        <v>53296.1</v>
+      </c>
+      <c r="B299" s="5">
+        <v>117345.1</v>
+      </c>
+      <c r="C299" s="5">
+        <v>1</v>
+      </c>
+      <c r="E299" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A300" s="5">
+        <v>54038.1</v>
+      </c>
+      <c r="B300" s="5">
+        <v>117917</v>
+      </c>
+      <c r="C300" s="5">
+        <v>1</v>
+      </c>
+      <c r="E300" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A301" s="5">
+        <v>56246.7</v>
+      </c>
+      <c r="B301" s="5">
+        <v>119818.6</v>
+      </c>
+      <c r="C301" s="5">
+        <v>1</v>
+      </c>
+      <c r="E301" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A302" s="5">
+        <v>57716.5</v>
+      </c>
+      <c r="B302" s="5">
+        <v>121031.2</v>
+      </c>
+      <c r="C302" s="5">
+        <v>1</v>
+      </c>
+      <c r="E302" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A303" s="5">
+        <v>58799.199999999997</v>
+      </c>
+      <c r="B303" s="5">
+        <v>122082.7</v>
+      </c>
+      <c r="C303" s="5">
+        <v>1</v>
+      </c>
+      <c r="E303" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A304" s="5">
+        <v>59680.4</v>
+      </c>
+      <c r="B304" s="5">
+        <v>123115.8</v>
+      </c>
+      <c r="C304" s="5">
+        <v>1</v>
+      </c>
+      <c r="E304" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A305" s="5">
+        <v>60222.400000000001</v>
+      </c>
+      <c r="B305" s="5">
+        <v>124102</v>
+      </c>
+      <c r="C305" s="5">
+        <v>1</v>
+      </c>
+      <c r="E305" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A306" s="5">
+        <v>60697.2</v>
+      </c>
+      <c r="B306" s="5">
+        <v>125238.2</v>
+      </c>
+      <c r="C306" s="5">
+        <v>1</v>
+      </c>
+      <c r="E306" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A307" s="5">
+        <v>60873</v>
+      </c>
+      <c r="B307" s="5">
+        <v>126227.7</v>
+      </c>
+      <c r="C307" s="5">
+        <v>1</v>
+      </c>
+      <c r="E307" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A308" s="5">
+        <v>60898</v>
+      </c>
+      <c r="B308" s="5">
+        <v>127188</v>
+      </c>
+      <c r="C308" s="5">
+        <v>1</v>
+      </c>
+      <c r="E308" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A309" s="5">
+        <v>60673.599999999999</v>
+      </c>
+      <c r="B309" s="5">
+        <v>128040.4</v>
+      </c>
+      <c r="C309" s="5">
+        <v>1</v>
+      </c>
+      <c r="E309" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A310" s="5">
+        <v>60244.800000000003</v>
+      </c>
+      <c r="B310" s="5">
+        <v>128988.5</v>
+      </c>
+      <c r="C310" s="5">
+        <v>1</v>
+      </c>
+      <c r="E310" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A311" s="5">
+        <v>59769.7</v>
+      </c>
+      <c r="B311" s="5">
+        <v>129784.1</v>
+      </c>
+      <c r="C311" s="5">
+        <v>1</v>
+      </c>
+      <c r="E311" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A312" s="5">
+        <v>59315</v>
+      </c>
+      <c r="B312" s="5">
+        <v>130277.2</v>
+      </c>
+      <c r="C312" s="5">
+        <v>1</v>
+      </c>
+      <c r="E312" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A313" s="5">
+        <v>58605.3</v>
+      </c>
+      <c r="B313" s="5">
+        <v>130877</v>
+      </c>
+      <c r="C313" s="5">
+        <v>1</v>
+      </c>
+      <c r="E313" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A314" s="5">
+        <v>58011.199999999997</v>
+      </c>
+      <c r="B314" s="5">
+        <v>131391.70000000001</v>
+      </c>
+      <c r="C314" s="5">
+        <v>1</v>
+      </c>
+      <c r="E314" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A315" s="5">
+        <v>57282.2</v>
+      </c>
+      <c r="B315" s="5">
+        <v>132243.4</v>
+      </c>
+      <c r="C315" s="5">
+        <v>1</v>
+      </c>
+      <c r="E315" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A316" s="5">
+        <v>56523.6</v>
+      </c>
+      <c r="B316" s="5">
+        <v>133246.1</v>
+      </c>
+      <c r="C316" s="5">
+        <v>1</v>
+      </c>
+      <c r="E316" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A317" s="5">
+        <v>56008.9</v>
+      </c>
+      <c r="B317" s="5">
+        <v>134103.70000000001</v>
+      </c>
+      <c r="C317" s="5">
+        <v>1</v>
+      </c>
+      <c r="E317" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A318" s="5">
+        <v>55544.6</v>
+      </c>
+      <c r="B318" s="5">
+        <v>134962.6</v>
+      </c>
+      <c r="C318" s="5">
+        <v>1</v>
+      </c>
+      <c r="E318" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A319" s="5">
+        <v>55194.2</v>
+      </c>
+      <c r="B319" s="5">
+        <v>135811.70000000001</v>
+      </c>
+      <c r="C319" s="5">
+        <v>1</v>
+      </c>
+      <c r="E319" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A320" s="5">
+        <v>54946.2</v>
+      </c>
+      <c r="B320" s="5">
+        <v>136600.70000000001</v>
+      </c>
+      <c r="C320" s="5">
+        <v>1</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A321" s="5">
+        <v>54717.2</v>
+      </c>
+      <c r="B321" s="5">
+        <v>137629.9</v>
+      </c>
+      <c r="C321" s="5">
+        <v>1</v>
+      </c>
+      <c r="E321" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A322" s="5">
+        <v>54640.7</v>
+      </c>
+      <c r="B322" s="5">
+        <v>138612.5</v>
+      </c>
+      <c r="C322" s="5">
+        <v>1</v>
+      </c>
+      <c r="E322" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A323" s="5">
+        <v>54672.2</v>
+      </c>
+      <c r="B323" s="5">
+        <v>139812.70000000001</v>
+      </c>
+      <c r="C323" s="5">
+        <v>1</v>
+      </c>
+      <c r="E323" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A324" s="5">
+        <v>54847.4</v>
+      </c>
+      <c r="B324" s="5">
+        <v>140827.4</v>
+      </c>
+      <c r="C324" s="5">
+        <v>1</v>
+      </c>
+      <c r="E324" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A325" s="5">
+        <v>55200.800000000003</v>
+      </c>
+      <c r="B325" s="5">
+        <v>142263.1</v>
+      </c>
+      <c r="C325" s="5">
+        <v>1</v>
+      </c>
+      <c r="E325" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A326" s="5">
+        <v>55625.3</v>
+      </c>
+      <c r="B326" s="5">
+        <v>143398</v>
+      </c>
+      <c r="C326" s="5">
+        <v>1</v>
+      </c>
+      <c r="E326" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A327" s="5">
+        <v>56136.5</v>
+      </c>
+      <c r="B327" s="5">
+        <v>144585.60000000001</v>
+      </c>
+      <c r="C327" s="5">
+        <v>1</v>
+      </c>
+      <c r="E327" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A328" s="5">
+        <v>56648</v>
+      </c>
+      <c r="B328" s="5">
+        <v>145760.79999999999</v>
+      </c>
+      <c r="C328" s="5">
+        <v>1</v>
+      </c>
+      <c r="E328" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A329" s="5">
+        <v>57300.2</v>
+      </c>
+      <c r="B329" s="5">
+        <v>146876.29999999999</v>
+      </c>
+      <c r="C329" s="5">
+        <v>1</v>
+      </c>
+      <c r="E329" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A330" s="5">
+        <v>57990.8</v>
+      </c>
+      <c r="B330" s="5">
+        <v>147955.1</v>
+      </c>
+      <c r="C330" s="5">
+        <v>1</v>
+      </c>
+      <c r="E330" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A331" s="5">
+        <v>58926.2</v>
+      </c>
+      <c r="B331" s="5">
+        <v>149330.70000000001</v>
+      </c>
+      <c r="C331" s="5">
+        <v>1</v>
+      </c>
+      <c r="E331" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A332" s="5">
+        <v>59639.8</v>
+      </c>
+      <c r="B332" s="5">
+        <v>150510.79999999999</v>
+      </c>
+      <c r="C332" s="5">
+        <v>1</v>
+      </c>
+      <c r="E332" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A333" s="5">
+        <v>60840.800000000003</v>
+      </c>
+      <c r="B333" s="5">
+        <v>151796.70000000001</v>
+      </c>
+      <c r="C333" s="5">
+        <v>1</v>
+      </c>
+      <c r="E333" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A334" s="5">
+        <v>61616.3</v>
+      </c>
+      <c r="B334" s="5">
+        <v>152595.20000000001</v>
+      </c>
+      <c r="C334" s="5">
+        <v>1</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A335" s="5">
+        <v>62391.8</v>
+      </c>
+      <c r="B335" s="5">
+        <v>153393.70000000001</v>
+      </c>
+      <c r="C335" s="5">
+        <v>1</v>
+      </c>
+      <c r="E335" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A336" s="5">
+        <v>45125.3</v>
+      </c>
+      <c r="B336" s="5">
+        <v>114247.7</v>
+      </c>
+      <c r="C336" s="5">
+        <v>1</v>
+      </c>
+      <c r="E336" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A337" s="5">
+        <v>46819.6</v>
+      </c>
+      <c r="B337" s="5">
+        <v>115554.8</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1</v>
+      </c>
+      <c r="E337" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A338" s="5">
+        <v>48700.5</v>
+      </c>
+      <c r="B338" s="5">
+        <v>116955.4</v>
+      </c>
+      <c r="C338" s="5">
+        <v>1</v>
+      </c>
+      <c r="E338" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A339" s="5">
+        <v>49850.400000000001</v>
+      </c>
+      <c r="B339" s="5">
+        <v>117857</v>
+      </c>
+      <c r="C339" s="5">
+        <v>1</v>
+      </c>
+      <c r="E339" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A340" s="5">
+        <v>52616.5</v>
+      </c>
+      <c r="B340" s="5">
+        <v>119672.2</v>
+      </c>
+      <c r="C340" s="5">
+        <v>1</v>
+      </c>
+      <c r="E340" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A341" s="5">
+        <v>54701.8</v>
+      </c>
+      <c r="B341" s="5">
+        <v>120989.5</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1</v>
+      </c>
+      <c r="E341" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A342" s="5">
+        <v>56053.5</v>
+      </c>
+      <c r="B342" s="5">
+        <v>121883.9</v>
+      </c>
+      <c r="C342" s="5">
+        <v>1</v>
+      </c>
+      <c r="E342" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A343" s="5">
+        <v>56746.7</v>
+      </c>
+      <c r="B343" s="5">
+        <v>122394.4</v>
+      </c>
+      <c r="C343" s="5">
+        <v>1</v>
+      </c>
+      <c r="E343" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A344" s="5">
+        <v>57290.7</v>
+      </c>
+      <c r="B344" s="5">
+        <v>122825.5</v>
+      </c>
+      <c r="C344" s="5">
+        <v>1</v>
+      </c>
+      <c r="E344" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A345" s="5">
+        <v>57794.9</v>
+      </c>
+      <c r="B345" s="5">
+        <v>123318.6</v>
+      </c>
+      <c r="C345" s="5">
+        <v>1</v>
+      </c>
+      <c r="E345" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A346" s="5">
+        <v>58199.8</v>
+      </c>
+      <c r="B346" s="5">
+        <v>123758.5</v>
+      </c>
+      <c r="C346" s="5">
+        <v>1</v>
+      </c>
+      <c r="E346" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A347" s="5">
+        <v>58477.7</v>
+      </c>
+      <c r="B347" s="5">
+        <v>124220.1</v>
+      </c>
+      <c r="C347" s="5">
+        <v>1</v>
+      </c>
+      <c r="E347" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A348" s="5">
+        <v>58719.199999999997</v>
+      </c>
+      <c r="B348" s="5">
+        <v>124643.4</v>
+      </c>
+      <c r="C348" s="5">
+        <v>1</v>
+      </c>
+      <c r="E348" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A349" s="5">
+        <v>58907.8</v>
+      </c>
+      <c r="B349" s="5">
+        <v>125140.8</v>
+      </c>
+      <c r="C349" s="5">
+        <v>1</v>
+      </c>
+      <c r="E349" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A350" s="5">
+        <v>59046.3</v>
+      </c>
+      <c r="B350" s="5">
+        <v>125636.8</v>
+      </c>
+      <c r="C350" s="5">
+        <v>1</v>
+      </c>
+      <c r="E350" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A351" s="5">
+        <v>59107.6</v>
+      </c>
+      <c r="B351" s="5">
+        <v>126181.1</v>
+      </c>
+      <c r="C351" s="5">
+        <v>1</v>
+      </c>
+      <c r="E351" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A352" s="5">
+        <v>59069.9</v>
+      </c>
+      <c r="B352" s="5">
+        <v>126647.3</v>
+      </c>
+      <c r="C352" s="5">
+        <v>1</v>
+      </c>
+      <c r="E352" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A353" s="5">
+        <v>58915.4</v>
+      </c>
+      <c r="B353" s="5">
+        <v>127249.3</v>
+      </c>
+      <c r="C353" s="5">
+        <v>1</v>
+      </c>
+      <c r="E353" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A354" s="5">
+        <v>58711.9</v>
+      </c>
+      <c r="B354" s="5">
+        <v>127786.7</v>
+      </c>
+      <c r="C354" s="5">
+        <v>1</v>
+      </c>
+      <c r="E354" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A355" s="5">
+        <v>58470.1</v>
+      </c>
+      <c r="B355" s="5">
+        <v>128336</v>
+      </c>
+      <c r="C355" s="5">
+        <v>1</v>
+      </c>
+      <c r="E355" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A356" s="5">
+        <v>58156.2</v>
+      </c>
+      <c r="B356" s="5">
+        <v>128756.9</v>
+      </c>
+      <c r="C356" s="5">
+        <v>1</v>
+      </c>
+      <c r="E356" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A357" s="5">
+        <v>57805.1</v>
+      </c>
+      <c r="B357" s="5">
+        <v>129151.6</v>
+      </c>
+      <c r="C357" s="5">
+        <v>1</v>
+      </c>
+      <c r="E357" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A358" s="5">
+        <v>57327.4</v>
+      </c>
+      <c r="B358" s="5">
+        <v>129568.2</v>
+      </c>
+      <c r="C358" s="5">
+        <v>1</v>
+      </c>
+      <c r="E358" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A359" s="5">
+        <v>56889.4</v>
+      </c>
+      <c r="B359" s="5">
+        <v>129910.1</v>
+      </c>
+      <c r="C359" s="5">
+        <v>1</v>
+      </c>
+      <c r="E359" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A360" s="5">
+        <v>56349.7</v>
+      </c>
+      <c r="B360" s="5">
+        <v>130274.6</v>
+      </c>
+      <c r="C360" s="5">
+        <v>1</v>
+      </c>
+      <c r="E360" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A361" s="5">
+        <v>55691.9</v>
+      </c>
+      <c r="B361" s="5">
+        <v>130812.7</v>
+      </c>
+      <c r="C361" s="5">
+        <v>1</v>
+      </c>
+      <c r="E361" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A362" s="5">
+        <v>55073.8</v>
+      </c>
+      <c r="B362" s="5">
+        <v>131288.70000000001</v>
+      </c>
+      <c r="C362" s="5">
+        <v>1</v>
+      </c>
+      <c r="E362" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A363" s="5">
+        <v>54463.9</v>
+      </c>
+      <c r="B363" s="5">
+        <v>131929.1</v>
+      </c>
+      <c r="C363" s="5">
+        <v>1</v>
+      </c>
+      <c r="E363" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A364" s="5">
+        <v>53713.9</v>
+      </c>
+      <c r="B364" s="5">
+        <v>132616.5</v>
+      </c>
+      <c r="C364" s="5">
+        <v>1</v>
+      </c>
+      <c r="E364" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A365" s="5">
+        <v>53128.6</v>
+      </c>
+      <c r="B365" s="5">
+        <v>133270</v>
+      </c>
+      <c r="C365" s="5">
+        <v>1</v>
+      </c>
+      <c r="E365" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A366" s="5">
+        <v>52583.7</v>
+      </c>
+      <c r="B366" s="5">
+        <v>133836.6</v>
+      </c>
+      <c r="C366" s="5">
+        <v>1</v>
+      </c>
+      <c r="E366" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A367" s="5">
+        <v>52046.9</v>
+      </c>
+      <c r="B367" s="5">
+        <v>134579.70000000001</v>
+      </c>
+      <c r="C367" s="5">
+        <v>1</v>
+      </c>
+      <c r="E367" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A368" s="5">
+        <v>51560</v>
+      </c>
+      <c r="B368" s="5">
+        <v>135336.9</v>
+      </c>
+      <c r="C368" s="5">
+        <v>1</v>
+      </c>
+      <c r="E368" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A369" s="5">
+        <v>51147</v>
+      </c>
+      <c r="B369" s="5">
+        <v>136159.5</v>
+      </c>
+      <c r="C369" s="5">
+        <v>1</v>
+      </c>
+      <c r="E369" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A370" s="5">
+        <v>50623</v>
+      </c>
+      <c r="B370" s="5">
+        <v>137370.1</v>
+      </c>
+      <c r="C370" s="5">
+        <v>1</v>
+      </c>
+      <c r="E370" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A371" s="5">
+        <v>50264.1</v>
+      </c>
+      <c r="B371" s="5">
+        <v>138547.6</v>
+      </c>
+      <c r="C371" s="5">
+        <v>1</v>
+      </c>
+      <c r="E371" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A372" s="5">
+        <v>49984.6</v>
+      </c>
+      <c r="B372" s="5">
+        <v>139575.5</v>
+      </c>
+      <c r="C372" s="5">
+        <v>1</v>
+      </c>
+      <c r="E372" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A373" s="5">
+        <v>49769.4</v>
+      </c>
+      <c r="B373" s="5">
+        <v>140554.5</v>
+      </c>
+      <c r="C373" s="5">
+        <v>1</v>
+      </c>
+      <c r="E373" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A374" s="5">
+        <v>42058.1</v>
+      </c>
+      <c r="B374" s="5">
+        <v>115239.8</v>
+      </c>
+      <c r="C374" s="5">
+        <v>1</v>
+      </c>
+      <c r="E374" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A375" s="5">
+        <v>44097.8</v>
+      </c>
+      <c r="B375" s="5">
+        <v>116366.8</v>
+      </c>
+      <c r="C375" s="5">
+        <v>1</v>
+      </c>
+      <c r="E375" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A376" s="5">
+        <v>46507.5</v>
+      </c>
+      <c r="B376" s="5">
+        <v>117819.2</v>
+      </c>
+      <c r="C376" s="5">
+        <v>1</v>
+      </c>
+      <c r="E376" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A377" s="5">
+        <v>48319.199999999997</v>
+      </c>
+      <c r="B377" s="5">
+        <v>118978</v>
+      </c>
+      <c r="C377" s="5">
+        <v>1</v>
+      </c>
+      <c r="E377" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A378" s="5">
+        <v>50974.400000000001</v>
+      </c>
+      <c r="B378" s="5">
+        <v>120689.3</v>
+      </c>
+      <c r="C378" s="5">
+        <v>1</v>
+      </c>
+      <c r="E378" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A379" s="5">
+        <v>52899</v>
+      </c>
+      <c r="B379" s="5">
+        <v>121876.3</v>
+      </c>
+      <c r="C379" s="5">
+        <v>1</v>
+      </c>
+      <c r="E379" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A380" s="5">
+        <v>55134.5</v>
+      </c>
+      <c r="B380" s="5">
+        <v>123235.6</v>
+      </c>
+      <c r="C380" s="5">
+        <v>1</v>
+      </c>
+      <c r="E380" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A381" s="5">
+        <v>55817.3</v>
+      </c>
+      <c r="B381" s="5">
+        <v>123670.3</v>
+      </c>
+      <c r="C381" s="5">
+        <v>1</v>
+      </c>
+      <c r="E381" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A382" s="5">
+        <v>56331.4</v>
+      </c>
+      <c r="B382" s="5">
+        <v>124264.8</v>
+      </c>
+      <c r="C382" s="5">
+        <v>1</v>
+      </c>
+      <c r="E382" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A383" s="5">
+        <v>56795.6</v>
+      </c>
+      <c r="B383" s="5">
+        <v>124845.1</v>
+      </c>
+      <c r="C383" s="5">
+        <v>1</v>
+      </c>
+      <c r="E383" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A384" s="5">
+        <v>57124</v>
+      </c>
+      <c r="B384" s="5">
+        <v>125308.1</v>
+      </c>
+      <c r="C384" s="5">
+        <v>1</v>
+      </c>
+      <c r="E384" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A385" s="5">
+        <v>57297.9</v>
+      </c>
+      <c r="B385" s="5">
+        <v>125893.4</v>
+      </c>
+      <c r="C385" s="5">
+        <v>1</v>
+      </c>
+      <c r="E385" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A386" s="5">
+        <v>57386.5</v>
+      </c>
+      <c r="B386" s="5">
+        <v>126362.9</v>
+      </c>
+      <c r="C386" s="5">
+        <v>1</v>
+      </c>
+      <c r="E386" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A387" s="5">
+        <v>57372.7</v>
+      </c>
+      <c r="B387" s="5">
+        <v>126892.7</v>
+      </c>
+      <c r="C387" s="5">
+        <v>1</v>
+      </c>
+      <c r="E387" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A388" s="5">
+        <v>57237.9</v>
+      </c>
+      <c r="B388" s="5">
+        <v>127217.5</v>
+      </c>
+      <c r="C388" s="5">
+        <v>1</v>
+      </c>
+      <c r="E388" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A389" s="5">
+        <v>56986.2</v>
+      </c>
+      <c r="B389" s="5">
+        <v>127665.4</v>
+      </c>
+      <c r="C389" s="5">
+        <v>1</v>
+      </c>
+      <c r="E389" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A390" s="5">
+        <v>56649.3</v>
+      </c>
+      <c r="B390" s="5">
+        <v>128010.2</v>
+      </c>
+      <c r="C390" s="5">
+        <v>1</v>
+      </c>
+      <c r="E390" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A391" s="5">
+        <v>56236.9</v>
+      </c>
+      <c r="B391" s="5">
+        <v>128327.4</v>
+      </c>
+      <c r="C391" s="5">
+        <v>1</v>
+      </c>
+      <c r="E391" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A392" s="5">
+        <v>55915.7</v>
+      </c>
+      <c r="B392" s="5">
+        <v>128546.3</v>
+      </c>
+      <c r="C392" s="5">
+        <v>1</v>
+      </c>
+      <c r="E392" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A393" s="5">
+        <v>55594.5</v>
+      </c>
+      <c r="B393" s="5">
+        <v>128765.1</v>
+      </c>
+      <c r="C393" s="5">
+        <v>1</v>
+      </c>
+      <c r="E393" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A394" s="5">
+        <v>55003.3</v>
+      </c>
+      <c r="B394" s="5">
+        <v>129178.5</v>
+      </c>
+      <c r="C394" s="5">
+        <v>1</v>
+      </c>
+      <c r="E394" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A395" s="5">
+        <v>54054.8</v>
+      </c>
+      <c r="B395" s="5">
+        <v>129734.3</v>
+      </c>
+      <c r="C395" s="5">
+        <v>1</v>
+      </c>
+      <c r="E395" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A396" s="5">
+        <v>53221.1</v>
+      </c>
+      <c r="B396" s="5">
+        <v>130242.5</v>
+      </c>
+      <c r="C396" s="5">
+        <v>1</v>
+      </c>
+      <c r="E396" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A397" s="5">
+        <v>52259.8</v>
+      </c>
+      <c r="B397" s="5">
+        <v>130810.7</v>
+      </c>
+      <c r="C397" s="5">
+        <v>1</v>
+      </c>
+      <c r="E397" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A398" s="5">
+        <v>51565</v>
+      </c>
+      <c r="B398" s="5">
+        <v>131322.5</v>
+      </c>
+      <c r="C398" s="5">
+        <v>1</v>
+      </c>
+      <c r="E398" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A399" s="5">
+        <v>50548.2</v>
+      </c>
+      <c r="B399" s="5">
+        <v>132065.9</v>
+      </c>
+      <c r="C399" s="5">
+        <v>1</v>
+      </c>
+      <c r="E399" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A400" s="5">
+        <v>49786.7</v>
+      </c>
+      <c r="B400" s="5">
+        <v>132714.9</v>
+      </c>
+      <c r="C400" s="5">
+        <v>1</v>
+      </c>
+      <c r="E400" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A401" s="5">
+        <v>49246.1</v>
+      </c>
+      <c r="B401" s="5">
+        <v>133117.1</v>
+      </c>
+      <c r="C401" s="5">
+        <v>1</v>
+      </c>
+      <c r="E401" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A402" s="5">
+        <v>48311</v>
+      </c>
+      <c r="B402" s="5">
+        <v>134127.6</v>
+      </c>
+      <c r="C402" s="5">
+        <v>1</v>
+      </c>
+      <c r="E402" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A403" s="5">
+        <v>47430.8</v>
+      </c>
+      <c r="B403" s="5">
+        <v>135442.9</v>
+      </c>
+      <c r="C403" s="5">
+        <v>1</v>
+      </c>
+      <c r="E403" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A404" s="5">
+        <v>46792.7</v>
+      </c>
+      <c r="B404" s="5">
+        <v>136675.9</v>
+      </c>
+      <c r="C404" s="5">
+        <v>1</v>
+      </c>
+      <c r="E404" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A405" s="5">
+        <v>40640.1</v>
+      </c>
+      <c r="B405" s="5">
+        <v>117323.5</v>
+      </c>
+      <c r="C405" s="5">
+        <v>1</v>
+      </c>
+      <c r="E405" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A406" s="5">
+        <v>41378.800000000003</v>
+      </c>
+      <c r="B406" s="5">
+        <v>117661.8</v>
+      </c>
+      <c r="C406" s="5">
+        <v>1</v>
+      </c>
+      <c r="E406" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A407" s="5">
+        <v>42117.599999999999</v>
+      </c>
+      <c r="B407" s="5">
+        <v>118000</v>
+      </c>
+      <c r="C407" s="5">
+        <v>1</v>
+      </c>
+      <c r="E407" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A408" s="5">
+        <v>42856.3</v>
+      </c>
+      <c r="B408" s="5">
+        <v>118338.3</v>
+      </c>
+      <c r="C408" s="5">
+        <v>1</v>
+      </c>
+      <c r="E408" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A409" s="5">
+        <v>43595.1</v>
+      </c>
+      <c r="B409" s="5">
+        <v>118676.5</v>
+      </c>
+      <c r="C409" s="5">
+        <v>1</v>
+      </c>
+      <c r="E409" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A410" s="5">
+        <v>44327.1</v>
+      </c>
+      <c r="B410" s="5">
+        <v>119033.60000000001</v>
+      </c>
+      <c r="C410" s="5">
+        <v>1</v>
+      </c>
+      <c r="E410" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A411" s="5">
+        <v>45059.1</v>
+      </c>
+      <c r="B411" s="5">
+        <v>119390.6</v>
+      </c>
+      <c r="C411" s="5">
+        <v>1</v>
+      </c>
+      <c r="E411" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A412" s="5">
+        <v>45791</v>
+      </c>
+      <c r="B412" s="5">
+        <v>119747.6</v>
+      </c>
+      <c r="C412" s="5">
+        <v>1</v>
+      </c>
+      <c r="E412" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A413" s="5">
+        <v>46523</v>
+      </c>
+      <c r="B413" s="5">
+        <v>120104.7</v>
+      </c>
+      <c r="C413" s="5">
+        <v>1</v>
+      </c>
+      <c r="E413" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A414" s="5">
+        <v>48339.199999999997</v>
+      </c>
+      <c r="B414" s="5">
+        <v>121086.9</v>
+      </c>
+      <c r="C414" s="5">
+        <v>1</v>
+      </c>
+      <c r="E414" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A415" s="5">
+        <v>50327.4</v>
+      </c>
+      <c r="B415" s="5">
+        <v>122263.1</v>
+      </c>
+      <c r="C415" s="5">
+        <v>1</v>
+      </c>
+      <c r="E415" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A416" s="5">
+        <v>51744.4</v>
+      </c>
+      <c r="B416" s="5">
+        <v>123070.5</v>
+      </c>
+      <c r="C416" s="5">
+        <v>1</v>
+      </c>
+      <c r="E416" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A417" s="5">
+        <v>53270.3</v>
+      </c>
+      <c r="B417" s="5">
+        <v>124070.2</v>
+      </c>
+      <c r="C417" s="5">
+        <v>1</v>
+      </c>
+      <c r="E417" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A418" s="5">
+        <v>54100.1</v>
+      </c>
+      <c r="B418" s="5">
+        <v>124660.4</v>
+      </c>
+      <c r="C418" s="5">
+        <v>1</v>
+      </c>
+      <c r="E418" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A419" s="5">
+        <v>54593.5</v>
+      </c>
+      <c r="B419" s="5">
+        <v>125089.9</v>
+      </c>
+      <c r="C419" s="5">
+        <v>1</v>
+      </c>
+      <c r="E419" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A420" s="5">
+        <v>54873.7</v>
+      </c>
+      <c r="B420" s="5">
+        <v>125476.1</v>
+      </c>
+      <c r="C420" s="5">
+        <v>1</v>
+      </c>
+      <c r="E420" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A421" s="5">
+        <v>55052.800000000003</v>
+      </c>
+      <c r="B421" s="5">
+        <v>125859.6</v>
+      </c>
+      <c r="C421" s="5">
+        <v>1</v>
+      </c>
+      <c r="E421" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A422" s="5">
+        <v>55228</v>
+      </c>
+      <c r="B422" s="5">
+        <v>126394.4</v>
+      </c>
+      <c r="C422" s="5">
+        <v>1</v>
+      </c>
+      <c r="E422" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A423" s="5">
+        <v>55129.9</v>
+      </c>
+      <c r="B423" s="5">
+        <v>126757.9</v>
+      </c>
+      <c r="C423" s="5">
+        <v>1</v>
+      </c>
+      <c r="E423" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A424" s="5">
+        <v>54894</v>
+      </c>
+      <c r="B424" s="5">
+        <v>127092.5</v>
+      </c>
+      <c r="C424" s="5">
+        <v>1</v>
+      </c>
+      <c r="E424" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A425" s="5">
+        <v>54609.3</v>
+      </c>
+      <c r="B425" s="5">
+        <v>127362.9</v>
+      </c>
+      <c r="C425" s="5">
+        <v>1</v>
+      </c>
+      <c r="E425" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A426" s="5">
+        <v>54110.2</v>
+      </c>
+      <c r="B426" s="5">
+        <v>127627.3</v>
+      </c>
+      <c r="C426" s="5">
+        <v>1</v>
+      </c>
+      <c r="E426" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A427" s="5">
+        <v>53510.8</v>
+      </c>
+      <c r="B427" s="5">
+        <v>127864.2</v>
+      </c>
+      <c r="C427" s="5">
+        <v>1</v>
+      </c>
+      <c r="E427" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A428" s="5">
+        <v>52632.5</v>
+      </c>
+      <c r="B428" s="5">
+        <v>128156.5</v>
+      </c>
+      <c r="C428" s="5">
+        <v>1</v>
+      </c>
+      <c r="E428" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A429" s="5">
+        <v>51779.9</v>
+      </c>
+      <c r="B429" s="5">
+        <v>128437</v>
+      </c>
+      <c r="C429" s="5">
+        <v>1</v>
+      </c>
+      <c r="E429" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A430" s="5">
+        <v>51002.6</v>
+      </c>
+      <c r="B430" s="5">
+        <v>128719.5</v>
+      </c>
+      <c r="C430" s="5">
+        <v>1</v>
+      </c>
+      <c r="E430" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A431" s="5">
+        <v>50300.2</v>
+      </c>
+      <c r="B431" s="5">
+        <v>129029.2</v>
+      </c>
+      <c r="C431" s="5">
+        <v>1</v>
+      </c>
+      <c r="E431" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A432" s="5">
+        <v>49534.1</v>
+      </c>
+      <c r="B432" s="5">
+        <v>129375</v>
+      </c>
+      <c r="C432" s="5">
+        <v>1</v>
+      </c>
+      <c r="E432" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A433" s="5">
+        <v>48842.2</v>
+      </c>
+      <c r="B433" s="5">
+        <v>129773.6</v>
+      </c>
+      <c r="C433" s="5">
+        <v>1</v>
+      </c>
+      <c r="E433" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A434" s="5">
+        <v>48290.7</v>
+      </c>
+      <c r="B434" s="5">
+        <v>130112.5</v>
+      </c>
+      <c r="C434" s="5">
+        <v>1</v>
+      </c>
+      <c r="E434" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A435" s="5">
+        <v>47502.6</v>
+      </c>
+      <c r="B435" s="5">
+        <v>130811.4</v>
+      </c>
+      <c r="C435" s="5">
+        <v>1</v>
+      </c>
+      <c r="E435" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A436" s="5">
+        <v>46829.4</v>
+      </c>
+      <c r="B436" s="5">
+        <v>131450.1</v>
+      </c>
+      <c r="C436" s="5">
+        <v>1</v>
+      </c>
+      <c r="E436" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A437" s="5">
+        <v>46071.9</v>
+      </c>
+      <c r="B437" s="5">
+        <v>132427.5</v>
+      </c>
+      <c r="C437" s="5">
+        <v>1</v>
+      </c>
+      <c r="E437" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A438" s="5">
+        <v>45456</v>
+      </c>
+      <c r="B438" s="5">
+        <v>133295</v>
+      </c>
+      <c r="C438" s="5">
+        <v>1</v>
+      </c>
+      <c r="E438" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A439" s="5">
+        <v>35537.199999999997</v>
+      </c>
+      <c r="B439" s="5">
+        <v>119257.9</v>
+      </c>
+      <c r="C439" s="5">
+        <v>1</v>
+      </c>
+      <c r="E439" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A440" s="5">
+        <v>36366.800000000003</v>
+      </c>
+      <c r="B440" s="5">
+        <v>119551.6</v>
+      </c>
+      <c r="C440" s="5">
+        <v>1</v>
+      </c>
+      <c r="E440" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A441" s="5">
+        <v>37196.300000000003</v>
+      </c>
+      <c r="B441" s="5">
+        <v>119845.4</v>
+      </c>
+      <c r="C441" s="5">
+        <v>1</v>
+      </c>
+      <c r="E441" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A442" s="5">
+        <v>38025.9</v>
+      </c>
+      <c r="B442" s="5">
+        <v>120139.1</v>
+      </c>
+      <c r="C442" s="5">
+        <v>1</v>
+      </c>
+      <c r="E442" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A443" s="5">
+        <v>38855.5</v>
+      </c>
+      <c r="B443" s="5">
+        <v>120432.9</v>
+      </c>
+      <c r="C443" s="5">
+        <v>1</v>
+      </c>
+      <c r="E443" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A444" s="5">
+        <v>40495.699999999997</v>
+      </c>
+      <c r="B444" s="5">
+        <v>120892.7</v>
+      </c>
+      <c r="C444" s="5">
+        <v>1</v>
+      </c>
+      <c r="E444" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A445" s="5">
+        <v>41805.4</v>
+      </c>
+      <c r="B445" s="5">
+        <v>121470.1</v>
+      </c>
+      <c r="C445" s="5">
+        <v>1</v>
+      </c>
+      <c r="E445" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A446" s="5">
+        <v>43427.199999999997</v>
+      </c>
+      <c r="B446" s="5">
+        <v>122181.8</v>
+      </c>
+      <c r="C446" s="5">
+        <v>1</v>
+      </c>
+      <c r="E446" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A447" s="5">
+        <v>44597.1</v>
+      </c>
+      <c r="B447" s="5">
+        <v>122793.60000000001</v>
+      </c>
+      <c r="C447" s="5">
+        <v>1</v>
+      </c>
+      <c r="E447" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A448" s="5">
+        <v>45631.6</v>
+      </c>
+      <c r="B448" s="5">
+        <v>123275.3</v>
+      </c>
+      <c r="C448" s="5">
+        <v>1</v>
+      </c>
+      <c r="E448" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A449" s="5">
+        <v>46514.400000000001</v>
+      </c>
+      <c r="B449" s="5">
+        <v>123778.2</v>
+      </c>
+      <c r="C449" s="5">
+        <v>1</v>
+      </c>
+      <c r="E449" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A450" s="5">
+        <v>47094.8</v>
+      </c>
+      <c r="B450" s="5">
+        <v>124260.8</v>
+      </c>
+      <c r="C450" s="5">
+        <v>1</v>
+      </c>
+      <c r="E450" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A451" s="5">
+        <v>47361.599999999999</v>
+      </c>
+      <c r="B451" s="5">
+        <v>124671.9</v>
+      </c>
+      <c r="C451" s="5">
+        <v>1</v>
+      </c>
+      <c r="E451" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A452" s="5">
+        <v>47386.8</v>
+      </c>
+      <c r="B452" s="5">
+        <v>125152.2</v>
+      </c>
+      <c r="C452" s="5">
+        <v>1</v>
+      </c>
+      <c r="E452" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A453" s="5">
+        <v>47125</v>
+      </c>
+      <c r="B453" s="5">
+        <v>125511.5</v>
+      </c>
+      <c r="C453" s="5">
+        <v>1</v>
+      </c>
+      <c r="E453" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A454" s="5">
+        <v>46802.8</v>
+      </c>
+      <c r="B454" s="5">
+        <v>125755.6</v>
+      </c>
+      <c r="C454" s="5">
+        <v>1</v>
+      </c>
+      <c r="E454" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A455" s="5">
+        <v>46355.3</v>
+      </c>
+      <c r="B455" s="5">
+        <v>125983.6</v>
+      </c>
+      <c r="C455" s="5">
+        <v>1</v>
+      </c>
+      <c r="E455" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A456" s="5">
+        <v>45765.4</v>
+      </c>
+      <c r="B456" s="5">
+        <v>126346.8</v>
+      </c>
+      <c r="C456" s="5">
+        <v>1</v>
+      </c>
+      <c r="E456" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A457" s="5">
+        <v>44906.2</v>
+      </c>
+      <c r="B457" s="5">
+        <v>126866.8</v>
+      </c>
+      <c r="C457" s="5">
+        <v>1</v>
+      </c>
+      <c r="E457" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A458" s="5">
+        <v>44233.599999999999</v>
+      </c>
+      <c r="B458" s="5">
+        <v>127493.1</v>
+      </c>
+      <c r="C458" s="5">
+        <v>1</v>
+      </c>
+      <c r="E458" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A459" s="5">
+        <v>43364.800000000003</v>
+      </c>
+      <c r="B459" s="5">
+        <v>128366.5</v>
+      </c>
+      <c r="C459" s="5">
+        <v>1</v>
+      </c>
+      <c r="E459" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A460" s="5">
+        <v>42896.7</v>
+      </c>
+      <c r="B460" s="5">
+        <v>128897</v>
+      </c>
+      <c r="C460" s="5">
+        <v>1</v>
+      </c>
+      <c r="E460" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A461" s="5">
+        <v>42336.9</v>
+      </c>
+      <c r="B461" s="5">
+        <v>129551.5</v>
+      </c>
+      <c r="C461" s="5">
+        <v>1</v>
+      </c>
+      <c r="E461" s="5">
+        <v>0.16500000000000001</v>
       </c>
     </row>
   </sheetData>
